--- a/Daymakers/output/Testsorted_pred_proba.xlsx
+++ b/Daymakers/output/Testsorted_pred_proba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="C2" t="n">
-        <v>6.580352783203125e-05</v>
+        <v>0.0001397132873535156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999934196472168</v>
+        <v>0.9998602867126465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>brian and phil were so helpful to me as my husband had a longer than expected mri and i had an app to get to and there were concerns on how to logistically get him home. they kept me informed of how he was doing and getting a message to him too and in the end it worked out because he was done sooner than first expected. but they were awesome and so willing to help me work it out.</t>
+          <t>each and every employee is/was extremely professional and truly caring. i requested music and i got to listen to elvis, which is one of my favorites! the radiologist was communicating well, extremely patient with me. i had zero worries and was able to be as relaxed as possible. each and every person i met was truly compassionate, which is rare in other medical institutions. i am honored to be a patient of this exceptional institution. i have healed so much as a patient. i wish i could express myself more to state how safe i feel with the medical staff and assistants. i have full confidence that my brain complications are being addressed to the fullest. thank you!</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>brian and phil were so helpful to me as my husband had a longer than expected mri and i had an app to get to and there were concerns on how to logistically get him home they kept me informed of how he was doing and getting a message to him too and in the end it worked out because he was done sooner than first expected but they were awesome and so willing to help me work it out</t>
+          <t>each and every employee is was extremely professional and truly caring i requested music and i got to listen to elvis which is one of my favorites the radiologist was communicating well extremely patient with me i had zero worries and was able to be as relaxed as possible each and every person i met was truly compassionate which is rare in other medical institutions i am honored to be a patient of this exceptional institution i have healed so much as a patient i wish i could express myself more to state how safe i feel with the medical staff and assistants i have full confidence that my brain complications are being addressed to the fullest thank you</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -503,22 +503,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>9.667873382568359e-05</v>
+        <v>0.0001459121704101562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999033212661743</v>
+        <v>0.9998540878295898</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>the radiology team was terrific. i was very nervous and they did everything they could to calm me down. they are very caring and professional.</t>
+          <t>the tech was very informative and explained in great detail what was going to happen and how it would make me feel. i truly appreciate those detailed conversations that helped reduce my anxiety.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>the radiology team was terrific i was very nervous and they did everything they could to calm me down they are very caring and professional</t>
+          <t>the tech was very informative and explained in great detail what was going to happen and how it would make me feel i truly appreciate those detailed conversations that helped reduce my anxiety</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -533,22 +533,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001260042190551758</v>
+        <v>0.000162959098815918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998739957809448</v>
+        <v>0.9998370409011841</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>overall i am so impressed with the mayo clinic. everyone is so expert and professional. the mri experience was so calm and easy, in what could be a very stressful situation. the nurse who did my iv was very skilled, and i didn’t even have a bruise or wound the next day. the radiology team in the mri room made me very comfortable, checked in often, explained everything and did all very expertly. the results were clear and well-described. this was not my first mri but was the least stressful.</t>
+          <t>the technician was caring and respectful of my anxiety. she made the experience a much better one than i had had in the past. and, the slightly larger tube in this particular mri really helped.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>overall i am so impressed with the mayo clinic everyone is so expert and professional the mri experience was so calm and easy in what could be a very stressful situation the nurse who did my iv was very skilled and i didn t even have a bruise or wound the next day the radiology team in the mri room made me very comfortable checked in often explained everything and did all very expertly the results were clear and well described this was not my first mri but was the least stressful</t>
+          <t>the technician was caring and respectful of my anxiety she made the experience a much better one than i had had in the past and the slightly larger tube in this particular mri really helped</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -563,22 +563,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001590251922607422</v>
+        <v>0.000168919563293457</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998409748077393</v>
+        <v>0.9998310804367065</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>the radiology mri team was wonderful. i was in so much pain and they made the experience much more tolerable. the gentleman that brought me back to the er could not have nicer and i_x000d_ appreciated his kidneys and fist bump when he dropped me off you should be very proud to have such a caring and compassionate group of staff</t>
+          <t>i would like to recognize the amazing nurse i believe his name is justin friedenthal. from the moment i arrived he greeted me with a welcoming smile creating rapport which is never done as usually everyone is in a rush to get you in and out and don't take time to see you as a person. he explained everything step by step and while getting ready to get procedure done he stayed by my side until i was comfortable enough to let go as i really felt i was going to fall off the table but he helped reassure me and even gave me a pillow to be more comfortable. he didn't rush me and was very patient and understanding and ever so compassionate. after the procedure there wasn't any transport available and he went out of his way and took me himself to my room. he went above and beyond to care for his patients and that really needs to be recognized because i haven't seen that type of care ever. he is so sweet and caring and didn't treat me like just another number. his kindness truly made a difference and i'm so grateful to have had the privilege to have been under his care that day for my procedure. please thank him for me. he is truly what i wish medical staff would be all about. excellence in patient care with compassion. the procedure went well and was very happy with the whole experience in the radiology department.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>the radiology mri team was wonderful i was in so much pain and they made the experience much more tolerable the gentleman that brought me back to the er could not have nicer and i x000d appreciated his kidneys and fist bump when he dropped me off you should be very proud to have such a caring and compassionate group of staff</t>
+          <t>i would like to recognize the amazing nurse i believe his name is justin friedenthal from the moment i arrived he greeted me with a welcoming smile creating rapport which is never done as usually everyone is in a rush to get you in and out and don t take time to see you as a person he explained everything step by step and while getting ready to get procedure done he stayed by my side until i was comfortable enough to let go as i really felt i was going to fall off the table but he helped reassure me and even gave me a pillow to be more comfortable he didn t rush me and was very patient and understanding and ever so compassionate after the procedure there wasn t any transport available and he went out of his way and took me himself to my room he went above and beyond to care for his patients and that really needs to be recognized because i haven t seen that type of care ever he is so sweet and caring and didn t treat me like just another number his kindness truly made a difference and i m so grateful to have had the privilege to have been under his care that day for my procedure please thank him for me he is truly what i wish medical staff would be all about excellence in patient care with compassion the procedure went well and was very happy with the whole experience in the radiology department</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -593,22 +593,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001605749130249023</v>
+        <v>0.0002151131629943848</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998394250869751</v>
+        <v>0.9997848868370056</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>the radiology team was great. i was greeted almost the moment i checked in, they made comfortable and explained my procedure to me. the room temperature was appropriate during my visit.</t>
+          <t>the radiology team was terrific. i was very nervous and they did everything they could to calm me down. they are very caring and professional.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>the radiology team was great i was greeted almost the moment i checked in they made comfortable and explained my procedure to me the room temperature was appropriate during my visit</t>
+          <t>the radiology team was terrific i was very nervous and they did everything they could to calm me down they are very caring and professional</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -623,22 +623,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000177919864654541</v>
+        <v>0.0002605319023132324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998220801353455</v>
+        <v>0.9997394680976868</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>i would like to recognize the amazing nurse i believe his name is justin friedenthal. from the moment i arrived he greeted me with a welcoming smile creating rapport which is never done as usually everyone is in a rush to get you in and out and don't take time to see you as a person. he explained everything step by step and while getting ready to get procedure done he stayed by my side until i was comfortable enough to let go as i really felt i was going to fall off the table but he helped reassure me and even gave me a pillow to be more comfortable. he didn't rush me and was very patient and understanding and ever so compassionate. after the procedure there wasn't any transport available and he went out of his way and took me himself to my room. he went above and beyond to care for his patients and that really needs to be recognized because i haven't seen that type of care ever. he is so sweet and caring and didn't treat me like just another number. his kindness truly made a difference and i'm so grateful to have had the privilege to have been under his care that day for my procedure. please thank him for me. he is truly what i wish medical staff would be all about. excellence in patient care with compassion. the procedure went well and was very happy with the whole experience in the radiology department.</t>
+          <t>my tech khaled was exceptional. he was very helpful and kind. he definitely went above and beyond to ensure my comfort. his attitude was upbeat and very positive. he enjoys his job and does it well and is a great asset to mayo.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>i would like to recognize the amazing nurse i believe his name is justin friedenthal from the moment i arrived he greeted me with a welcoming smile creating rapport which is never done as usually everyone is in a rush to get you in and out and don t take time to see you as a person he explained everything step by step and while getting ready to get procedure done he stayed by my side until i was comfortable enough to let go as i really felt i was going to fall off the table but he helped reassure me and even gave me a pillow to be more comfortable he didn t rush me and was very patient and understanding and ever so compassionate after the procedure there wasn t any transport available and he went out of his way and took me himself to my room he went above and beyond to care for his patients and that really needs to be recognized because i haven t seen that type of care ever he is so sweet and caring and didn t treat me like just another number his kindness truly made a difference and i m so grateful to have had the privilege to have been under his care that day for my procedure please thank him for me he is truly what i wish medical staff would be all about excellence in patient care with compassion the procedure went well and was very happy with the whole experience in the radiology department</t>
+          <t>my tech khaled was exceptional he was very helpful and kind he definitely went above and beyond to ensure my comfort his attitude was upbeat and very positive he enjoys his job and does it well and is a great asset to mayo</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -653,22 +653,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002588629722595215</v>
+        <v>0.0003154277801513672</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997411370277405</v>
+        <v>0.9996845722198486</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>the nurse, ashley, could not have been nicer. she was thoughtful and kind as well as professional. i waited longer than anticipated due to er patients needing radiology tests. when i was called back, the two technicians were very thoughtful and kind. the process was quick. they apologized for the wait and offered to call my boss to explain. that was not needed but i was very appreciative of them understanding and empathizing with the patient. my experience could not have been better due to the professionalism and kindness of the staff.</t>
+          <t>both katie and stacy were exceptional, kept me informed, very kind and caring._x000d_ demonstrated outstanding professionalism._x000d_ informed me on what they were doing/ what was happening and what the mri accomplished.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>the nurse ashley could not have been nicer she was thoughtful and kind as well as professional i waited longer than anticipated due to er patients needing radiology tests when i was called back the two technicians were very thoughtful and kind the process was quick they apologized for the wait and offered to call my boss to explain that was not needed but i was very appreciative of them understanding and empathizing with the patient my experience could not have been better due to the professionalism and kindness of the staff</t>
+          <t>both katie and stacy were exceptional kept me informed very kind and caring x000d demonstrated outstanding professionalism x000d informed me on what they were doing what was happening and what the mri accomplished</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -683,22 +683,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000304102897644043</v>
+        <v>0.0003362894058227539</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999695897102356</v>
+        <v>0.9996637105941772</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>the tech was very informative and explained in great detail what was going to happen and how it would make me feel. i truly appreciate those detailed conversations that helped reduce my anxiety.</t>
+          <t>the technician was very friendly and careful to explain the process thoroughly. i think that he is very good at putting patients at easy and making them feel comfortable.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>the tech was very informative and explained in great detail what was going to happen and how it would make me feel i truly appreciate those detailed conversations that helped reduce my anxiety</t>
+          <t>the technician was very friendly and careful to explain the process thoroughly i think that he is very good at putting patients at easy and making them feel comfortable</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004860162734985352</v>
+        <v>0.0004468560218811035</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9995139837265015</v>
+        <v>0.9995531439781189</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>my tech khaled was exceptional. he was very helpful and kind. he definitely went above and beyond to ensure my comfort. his attitude was upbeat and very positive. he enjoys his job and does it well and is a great asset to mayo.</t>
+          <t>the nurse, ashley, could not have been nicer. she was thoughtful and kind as well as professional. i waited longer than anticipated due to er patients needing radiology tests. when i was called back, the two technicians were very thoughtful and kind. the process was quick. they apologized for the wait and offered to call my boss to explain. that was not needed but i was very appreciative of them understanding and empathizing with the patient. my experience could not have been better due to the professionalism and kindness of the staff.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>my tech khaled was exceptional he was very helpful and kind he definitely went above and beyond to ensure my comfort his attitude was upbeat and very positive he enjoys his job and does it well and is a great asset to mayo</t>
+          <t>the nurse ashley could not have been nicer she was thoughtful and kind as well as professional i waited longer than anticipated due to er patients needing radiology tests when i was called back the two technicians were very thoughtful and kind the process was quick they apologized for the wait and offered to call my boss to explain that was not needed but i was very appreciative of them understanding and empathizing with the patient my experience could not have been better due to the professionalism and kindness of the staff</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -743,22 +743,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004965066909790039</v>
+        <v>0.0005155801773071289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999503493309021</v>
+        <v>0.9994844198226929</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>i appreciate the extreme professionalism and caring attitude of the team! i now understand why you are so highly sought out for care! my health care was outstanding! thank you all for the excellent job!</t>
+          <t>the technician was very personable and efficient. i was impressed. thank you for another good experience at mayo..</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>i appreciate the extreme professionalism and caring attitude of the team i now understand why you are so highly sought out for care my health care was outstanding thank you all for the excellent job</t>
+          <t>the technician was very personable and efficient i was impressed thank you for another good experience at mayo</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -773,22 +773,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005108118057250977</v>
+        <v>0.0005466341972351074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9994891881942749</v>
+        <v>0.9994533658027649</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>although the procedure was not my favorite thing i've done, the staff were professional and kind. all the staff, especially the nurses, made me feel comfortable through conversation and jokes, which helped take some of the fear and awkwardness out of the situation.</t>
+          <t>it is amazing that outstanding service from all personnel is the norm, but it is! also, the nursing staff went the extra mile to make sure that the contrast needle went to the right place. well done.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>although the procedure was not my favorite thing i ve done the staff were professional and kind all the staff especially the nurses made me feel comfortable through conversation and jokes which helped take some of the fear and awkwardness out of the situation</t>
+          <t>it is amazing that outstanding service from all personnel is the norm but it is also the nursing staff went the extra mile to make sure that the contrast needle went to the right place well done</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -803,22 +803,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005872249603271484</v>
+        <v>0.0006886720657348633</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9994127750396729</v>
+        <v>0.9993113279342651</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>all the staff, from my nurse who inserted the iv to the team that ran the mri, were concerned about my comfort level and were very cheerful in their work. the latter impressed me the most!</t>
+          <t>the nurse who put my iv in was fantastic. i had a pretty bad experience the last time i was there with my iv and the nurse that helped this time was extremely careful and patient as she found the best vein before poking. she calmed me down and was very understanding of my fear.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>all the staff from my nurse who inserted the iv to the team that ran the mri were concerned about my comfort level and were very cheerful in their work the latter impressed me the most</t>
+          <t>the nurse who put my iv in was fantastic i had a pretty bad experience the last time i was there with my iv and the nurse that helped this time was extremely careful and patient as she found the best vein before poking she calmed me down and was very understanding of my fear</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -833,22 +833,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005911588668823242</v>
+        <v>0.0007066726684570312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9994088411331177</v>
+        <v>0.999293327331543</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>i have trouble with having a cage put around my face in an mri. the guy who got me set up in the machine was super. he knew just what to do, was calm and understanding. wish i could remember his name. he’s a keeper!</t>
+          <t>the whole experience was excellent! everyone was so exceptional, friendly, nice, caring and professional! and the fact that i got my results so fast was unbelievable! i’m only going to go to the mayo clinic even though it’s a five hour drive one way. it’s so worth it! i wish i would have started going there years ago. i would be much better off now. i really appreciate everyone at the mayo!</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>i have trouble with having a cage put around my face in an mri the guy who got me set up in the machine was super he knew just what to do was calm and understanding wish i could remember his name he s a keeper</t>
+          <t>the whole experience was excellent everyone was so exceptional friendly nice caring and professional and the fact that i got my results so fast was unbelievable i m only going to go to the mayo clinic even though it s a five hour drive one way it s so worth it i wish i would have started going there years ago i would be much better off now i really appreciate everyone at the mayo</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -863,22 +863,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006503462791442871</v>
+        <v>0.0007418990135192871</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9993496537208557</v>
+        <v>0.9992581009864807</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>the it was my 4 y/o son, and the tech that picked us up from the room to go to it was understanding and allowed me to carry him to the scan room. they also put some fun rainbow lights on during the scan, which helped make it seem less scary. overall, great experience.</t>
+          <t>the beautiful lady who checked me in was awesome, caring, sweet and very helpful. the technicians were also caring and helpful. their kindness made my day better and i hope whomever reads this lets them know they all made a difference.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>the it was my 4 y o son and the tech that picked us up from the room to go to it was understanding and allowed me to carry him to the scan room they also put some fun rainbow lights on during the scan which helped make it seem less scary overall great experience</t>
+          <t>the beautiful lady who checked me in was awesome caring sweet and very helpful the technicians were also caring and helpful their kindness made my day better and i hope whomever reads this lets them know they all made a difference</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -893,22 +893,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007231831550598145</v>
+        <v>0.0008549690246582031</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9992768168449402</v>
+        <v>0.9991450309753418</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>the mri machine had gone down so appointments were running about an hour behind schedule. the staff did do a great job keeping us informed about the delays, offered to reschedule, and allowed me to wait with my family in between my radiology tests. and after my mri was completed they provided me with a cafeteria voucher to show their appreciation for understanding.</t>
+          <t>people were friendly, efficient, explained the procedures, and cared about how i was feeling. i really appreciate all of those things! keep up the great work!</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>the mri machine had gone down so appointments were running about an hour behind schedule the staff did do a great job keeping us informed about the delays offered to reschedule and allowed me to wait with my family in between my radiology tests and after my mri was completed they provided me with a cafeteria voucher to show their appreciation for understanding</t>
+          <t>people were friendly efficient explained the procedures and cared about how i was feeling i really appreciate all of those things keep up the great work</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -923,22 +923,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007373690605163574</v>
+        <v>0.0008949637413024902</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9992626309394836</v>
+        <v>0.9991050362586975</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>people were friendly, efficient, explained the procedures, and cared about how i was feeling. i really appreciate all of those things! keep up the great work!</t>
+          <t>dominique the nurse was so helpful and covered every detail; the radiation team are so helpful, considerate and professional. many thanks to all.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>people were friendly efficient explained the procedures and cared about how i was feeling i really appreciate all of those things keep up the great work</t>
+          <t>dominique the nurse was so helpful and covered every detail the radiation team are so helpful considerate and professional many thanks to all</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -953,22 +953,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000780940055847168</v>
+        <v>0.0009333491325378418</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9992190599441528</v>
+        <v>0.9990666508674622</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>from check in to discharge the team at mayo had top of mind awareness for my comfort &amp; well being. special thank you to pre op nurses brenda mcgraff, &amp; stephanie marshall for providing such good care. surgical team who made me feel safe &amp; taken care of during the procedure. also a shout out to christian kim &amp; lulu alley in post op who made sure i was ok &amp; provided me with all of the information need to rest &amp; heal at home.</t>
+          <t>everyone at mayo clinic treated me very nice. they were professional and i was impressed with the care i received. thank you</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>from check in to discharge the team at mayo had top of mind awareness for my comfort well being special thank you to pre op nurses brenda mcgraff stephanie marshall for providing such good care surgical team who made me feel safe taken care of during the procedure also a shout out to christian kim lulu alley in post op who made sure i was ok provided me with all of the information need to rest heal at home</t>
+          <t>everyone at mayo clinic treated me very nice they were professional and i was impressed with the care i received thank you</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -983,22 +983,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0008304119110107422</v>
+        <v>0.0009534955024719238</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9991695880889893</v>
+        <v>0.9990465044975281</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>the nurse who put my iv in was fantastic. i had a pretty bad experience the last time i was there with my iv and the nurse that helped this time was extremely careful and patient as she found the best vein before poking. she calmed me down and was very understanding of my fear.</t>
+          <t>the radiology mri team was wonderful. i was in so much pain and they made the experience much more tolerable. the gentleman that brought me back to the er could not have nicer and i_x000d_ appreciated his kidneys and fist bump when he dropped me off you should be very proud to have such a caring and compassionate group of staff</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>the nurse who put my iv in was fantastic i had a pretty bad experience the last time i was there with my iv and the nurse that helped this time was extremely careful and patient as she found the best vein before poking she calmed me down and was very understanding of my fear</t>
+          <t>the radiology mri team was wonderful i was in so much pain and they made the experience much more tolerable the gentleman that brought me back to the er could not have nicer and i x000d appreciated his kidneys and fist bump when he dropped me off you should be very proud to have such a caring and compassionate group of staff</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1013,22 +1013,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008751749992370605</v>
+        <v>0.000967860221862793</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9991248250007629</v>
+        <v>0.9990321397781372</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>i have had several mri's in my lifetime and this one, by far, was the best. i was early for my appointment and early to be scanned. the staff (all of them) took mri safety and my comfort very serious. i am a registered nurse (didn't tell any of them) so i know the good and the bad. this staff had the upmost professionalism, kudos to mayo!!</t>
+          <t>i have trouble with having a cage put around my face in an mri. the guy who got me set up in the machine was super. he knew just what to do, was calm and understanding. wish i could remember his name. he’s a keeper!</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>i have had several mri s in my lifetime and this one by far was the best i was early for my appointment and early to be scanned the staff all of them took mri safety and my comfort very serious i am a registered nurse didn t tell any of them so i know the good and the bad this staff had the upmost professionalism kudos to mayo</t>
+          <t>i have trouble with having a cage put around my face in an mri the guy who got me set up in the machine was super he knew just what to do was calm and understanding wish i could remember his name he s a keeper</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1043,22 +1043,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009121894836425781</v>
+        <v>0.001010596752166748</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9990878105163574</v>
+        <v>0.9989894032478333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>each and every employee is/was extremely professional and truly caring. i requested music and i got to listen to elvis, which is one of my favorites! the radiologist was communicating well, extremely patient with me. i had zero worries and was able to be as relaxed as possible. each and every person i met was truly compassionate, which is rare in other medical institutions. i am honored to be a patient of this exceptional institution. i have healed so much as a patient. i wish i could express myself more to state how safe i feel with the medical staff and assistants. i have full confidence that my brain complications are being addressed to the fullest. thank you!</t>
+          <t>technicians were extremely courteous, i am a bit uncomfortable in confined spaces, but the technicians did their best to make sure i was comfortable. the made a typically uncomfortable procedure the best it could be, many thanks to the professionalism and courteousness of your team!</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>each and every employee is was extremely professional and truly caring i requested music and i got to listen to elvis which is one of my favorites the radiologist was communicating well extremely patient with me i had zero worries and was able to be as relaxed as possible each and every person i met was truly compassionate which is rare in other medical institutions i am honored to be a patient of this exceptional institution i have healed so much as a patient i wish i could express myself more to state how safe i feel with the medical staff and assistants i have full confidence that my brain complications are being addressed to the fullest thank you</t>
+          <t>technicians were extremely courteous i am a bit uncomfortable in confined spaces but the technicians did their best to make sure i was comfortable the made a typically uncomfortable procedure the best it could be many thanks to the professionalism and courteousness of your team</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1073,22 +1073,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00112229585647583</v>
+        <v>0.001113712787628174</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9988777041435242</v>
+        <v>0.9988862872123718</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>everyone at mayo clinic treated me very nice. they were professional and i was impressed with the care i received. thank you</t>
+          <t>the appointment was on time. from the nurse starting the line to the technologists, all was explained well to me. i the team demonstrated genuine caring for my comfort and getting good results from the scan.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>everyone at mayo clinic treated me very nice they were professional and i was impressed with the care i received thank you</t>
+          <t>the appointment was on time from the nurse starting the line to the technologists all was explained well to me i the team demonstrated genuine caring for my comfort and getting good results from the scan</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1103,22 +1103,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001315295696258545</v>
+        <v>0.00118023157119751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9986847043037415</v>
+        <v>0.9988197684288025</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>dominique the nurse was so helpful and covered every detail; the radiation team are so helpful, considerate and professional. many thanks to all.</t>
+          <t>the technologies were very kind and patient with me. i had a very lengthy mri study done, they spoke to me and let me know how long the next sequences were which was very reassuring. it also helped me know when i could shift my legs or arms around. i have had several studies done in the last few weeks with both simon med and smile - mayo was the best experience by far.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>dominique the nurse was so helpful and covered every detail the radiation team are so helpful considerate and professional many thanks to all</t>
+          <t>the technologies were very kind and patient with me i had a very lengthy mri study done they spoke to me and let me know how long the next sequences were which was very reassuring it also helped me know when i could shift my legs or arms around i have had several studies done in the last few weeks with both simon med and smile mayo was the best experience by far</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1133,22 +1133,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001479089260101318</v>
+        <v>0.001379013061523438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9985209107398987</v>
+        <v>0.9986209869384766</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>my whole experience at the clinic was seamless, from check in to check out. the person who checked me in took my information and provided me with directions as to where to go in the clinic. everything was explained to me as we went through the mri test. anytime i had a question, i was able to ask someone and was given a clear answer to the question.</t>
+          <t>rachel the in was so kind and patient with my terrified 10 year old daughter. jen the radiologist technician was also absolute amazing. the made a traumatic experience much better for my little one. i am very grateful.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>my whole experience at the clinic was seamless from check in to check out the person who checked me in took my information and provided me with directions as to where to go in the clinic everything was explained to me as we went through the mri test anytime i had a question i was able to ask someone and was given a clear answer to the question</t>
+          <t>rachel the in was so kind and patient with my terrified 10 year old daughter jen the radiologist technician was also absolute amazing the made a traumatic experience much better for my little one i am very grateful</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1163,22 +1163,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001525700092315674</v>
+        <v>0.001393616199493408</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9984742999076843</v>
+        <v>0.9986063838005066</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>professional experience from everyone. could not be happier with my test results as well. everyone explained in detail what each step of the visit. i was apprehensive when i arrived but after meeting and talking with my health care providers it dissipated.</t>
+          <t>i appreciate the extreme professionalism and caring attitude of the team! i now understand why you are so highly sought out for care! my health care was outstanding! thank you all for the excellent job!</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>professional experience from everyone could not be happier with my test results as well everyone explained in detail what each step of the visit i was apprehensive when i arrived but after meeting and talking with my health care providers it dissipated</t>
+          <t>i appreciate the extreme professionalism and caring attitude of the team i now understand why you are so highly sought out for care my health care was outstanding thank you all for the excellent job</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1193,22 +1193,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001606762409210205</v>
+        <v>0.001542568206787109</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9983932375907898</v>
+        <v>0.9984574317932129</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the #1 best aspect of treatment at mayo is medical staff. radiology is no different than other departments. the technicians are efficient, friendly, professional. it takes a lot of stress out of getting an mri. consequently, my visit was as good as getting an mri could be. they even praised my breathing!</t>
+          <t>my whole experience at the clinic was seamless, from check in to check out. the person who checked me in took my information and provided me with directions as to where to go in the clinic. everything was explained to me as we went through the mri test. anytime i had a question, i was able to ask someone and was given a clear answer to the question.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>the 1 best aspect of treatment at mayo is medical staff radiology is no different than other departments the technicians are efficient friendly professional it takes a lot of stress out of getting an mri consequently my visit was as good as getting an mri could be they even praised my breathing</t>
+          <t>my whole experience at the clinic was seamless from check in to check out the person who checked me in took my information and provided me with directions as to where to go in the clinic everything was explained to me as we went through the mri test anytime i had a question i was able to ask someone and was given a clear answer to the question</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1223,22 +1223,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001768290996551514</v>
+        <v>0.00160139799118042</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9982317090034485</v>
+        <v>0.9983986020088196</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>they were awesome and super caring professionals. i feel very blessed to have been seen by them</t>
+          <t>the technicians were friendly, kind and polite, getting me settled in fine and explaining what was happening along the way. they made sure i was steady on my feet when standing up after and walked me back to my room.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>they were awesome and super caring professionals i feel very blessed to have been seen by them</t>
+          <t>the technicians were friendly kind and polite getting me settled in fine and explaining what was happening along the way they made sure i was steady on my feet when standing up after and walked me back to my room</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1253,22 +1253,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0018349289894104</v>
+        <v>0.001693844795227051</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9981650710105896</v>
+        <v>0.9983061552047729</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>i was very impressed with the speed and enthusiasm of the workers in the handling of my radiology visit. very courteous and thorough.</t>
+          <t>the tech was very caring, professional and sensitive to my claustrophobic state.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>i was very impressed with the speed and enthusiasm of the workers in the handling of my radiology visit very courteous and thorough</t>
+          <t>the tech was very caring professional and sensitive to my claustrophobic state</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1283,22 +1283,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002026140689849854</v>
+        <v>0.001745283603668213</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9979738593101501</v>
+        <v>0.9982547163963318</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>mayo staff people were great. very professional and attentive</t>
+          <t>although the procedure was not my favorite thing i've done, the staff were professional and kind. all the staff, especially the nurses, made me feel comfortable through conversation and jokes, which helped take some of the fear and awkwardness out of the situation.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>mayo staff people were great very professional and attentive</t>
+          <t>although the procedure was not my favorite thing i ve done the staff were professional and kind all the staff especially the nurses made me feel comfortable through conversation and jokes which helped take some of the fear and awkwardness out of the situation</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1313,22 +1313,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002114236354827881</v>
+        <v>0.00188148021697998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9978857636451721</v>
+        <v>0.99811851978302</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>rachel the in was so kind and patient with my terrified 10 year old daughter. jen the radiologist technician was also absolute amazing. the made a traumatic experience much better for my little one. i am very grateful.</t>
+          <t>brian and phil were so helpful to me as my husband had a longer than expected mri and i had an app to get to and there were concerns on how to logistically get him home. they kept me informed of how he was doing and getting a message to him too and in the end it worked out because he was done sooner than first expected. but they were awesome and so willing to help me work it out.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>rachel the in was so kind and patient with my terrified 10 year old daughter jen the radiologist technician was also absolute amazing the made a traumatic experience much better for my little one i am very grateful</t>
+          <t>brian and phil were so helpful to me as my husband had a longer than expected mri and i had an app to get to and there were concerns on how to logistically get him home they kept me informed of how he was doing and getting a message to him too and in the end it worked out because he was done sooner than first expected but they were awesome and so willing to help me work it out</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1343,22 +1343,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002142846584320068</v>
+        <v>0.00202101469039917</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9978571534156799</v>
+        <v>0.9979789853096008</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>my first experience at mayo could not have been better! everything went according to schedule and everyone i dealt with was very pleasant and efficient. i've had many iris during the past several years and this one was by far the best. i was actually very comfortable in the machine and the tech who did the test was very efficient and could not have been nicer. all in all, a most pleasant experience!</t>
+          <t>all the staff, from my nurse who inserted the iv to the team that ran the mri, were concerned about my comfort level and were very cheerful in their work. the latter impressed me the most!</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>my first experience at mayo could not have been better everything went according to schedule and everyone i dealt with was very pleasant and efficient i ve had many iris during the past several years and this one was by far the best i was actually very comfortable in the machine and the tech who did the test was very efficient and could not have been nicer all in all a most pleasant experience</t>
+          <t>all the staff from my nurse who inserted the iv to the team that ran the mri were concerned about my comfort level and were very cheerful in their work the latter impressed me the most</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1373,22 +1373,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002143204212188721</v>
+        <v>0.002165257930755615</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9978567957878113</v>
+        <v>0.9978347420692444</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>everyone receptionist, nurses, doctors, interns made my appointment less stressful. they were respectful, concerned and professional.</t>
+          <t>i have had several mri's in my lifetime and this one, by far, was the best. i was early for my appointment and early to be scanned. the staff (all of them) took mri safety and my comfort very serious. i am a registered nurse (didn't tell any of them) so i know the good and the bad. this staff had the upmost professionalism, kudos to mayo!!</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>everyone receptionist nurses doctors interns made my appointment less stressful they were respectful concerned and professional</t>
+          <t>i have had several mri s in my lifetime and this one by far was the best i was early for my appointment and early to be scanned the staff all of them took mri safety and my comfort very serious i am a registered nurse didn t tell any of them so i know the good and the bad this staff had the upmost professionalism kudos to mayo</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1403,22 +1403,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002173960208892822</v>
+        <v>0.002219140529632568</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9978260397911072</v>
+        <v>0.9977808594703674</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>excellent experience. quick check-in; extremely limited wait time until called for procedure; tech was personable and assistive; procedure was quick &amp; without incident. absolutely no complaints.</t>
+          <t>tech was very compassionate when i had trouble being in the mri tube. his suggestions were helpful and he was kind.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>excellent experience quick check in extremely limited wait time until called for procedure tech was personable and assistive procedure was quick without incident absolutely no complaints</t>
+          <t>tech was very compassionate when i had trouble being in the mri tube his suggestions were helpful and he was kind</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1433,22 +1433,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00218510627746582</v>
+        <v>0.002270996570587158</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9978148937225342</v>
+        <v>0.9977290034294128</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>friendly professional staff. always on schedule. so fortunate to have the mayo team helping my husband.</t>
+          <t>prompt, courteous, knowledgeable folks. my first mri and the technician made me feel very comfortable.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>friendly professional staff always on schedule so fortunate to have the mayo team helping my husband</t>
+          <t>prompt courteous knowledgeable folks my first mri and the technician made me feel very comfortable</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1463,22 +1463,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002209663391113281</v>
+        <v>0.002332389354705811</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9977903366088867</v>
+        <v>0.9976676106452942</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>the appointment was on time. from the nurse starting the line to the technologists, all was explained well to me. i the team demonstrated genuine caring for my comfort and getting good results from the scan.</t>
+          <t>i was very impressed with the speed and enthusiasm of the workers in the handling of my radiology visit. very courteous and thorough.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>the appointment was on time from the nurse starting the line to the technologists all was explained well to me i the team demonstrated genuine caring for my comfort and getting good results from the scan</t>
+          <t>i was very impressed with the speed and enthusiasm of the workers in the handling of my radiology visit very courteous and thorough</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1493,22 +1493,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002222120761871338</v>
+        <v>0.002353250980377197</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9977778792381287</v>
+        <v>0.9976467490196228</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>technicians were extremely courteous, i am a bit uncomfortable in confined spaces, but the technicians did their best to make sure i was comfortable. the made a typically uncomfortable procedure the best it could be, many thanks to the professionalism and courteousness of your team!</t>
+          <t>the radiology staff were extremely friendly and explained every part of the test in detail. it made the experience much less stressful!</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>technicians were extremely courteous i am a bit uncomfortable in confined spaces but the technicians did their best to make sure i was comfortable the made a typically uncomfortable procedure the best it could be many thanks to the professionalism and courteousness of your team</t>
+          <t>the radiology staff were extremely friendly and explained every part of the test in detail it made the experience much less stressful</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1523,22 +1523,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002255797386169434</v>
+        <v>0.002515196800231934</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9977442026138306</v>
+        <v>0.9974848031997681</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>the technologies were very kind and patient with me. i had a very lengthy mri study done, they spoke to me and let me know how long the next sequences were which was very reassuring. it also helped me know when i could shift my legs or arms around. i have had several studies done in the last few weeks with both simon med and smile - mayo was the best experience by far.</t>
+          <t>from check in to discharge the team at mayo had top of mind awareness for my comfort &amp; well being. special thank you to pre op nurses brenda mcgraff, &amp; stephanie marshall for providing such good care. surgical team who made me feel safe &amp; taken care of during the procedure. also a shout out to christian kim &amp; lulu alley in post op who made sure i was ok &amp; provided me with all of the information need to rest &amp; heal at home.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>the technologies were very kind and patient with me i had a very lengthy mri study done they spoke to me and let me know how long the next sequences were which was very reassuring it also helped me know when i could shift my legs or arms around i have had several studies done in the last few weeks with both simon med and smile mayo was the best experience by far</t>
+          <t>from check in to discharge the team at mayo had top of mind awareness for my comfort well being special thank you to pre op nurses brenda mcgraff stephanie marshall for providing such good care surgical team who made me feel safe taken care of during the procedure also a shout out to christian kim lulu alley in post op who made sure i was ok provided me with all of the information need to rest heal at home</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1553,22 +1553,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002484679222106934</v>
+        <v>0.002606630325317383</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9975153207778931</v>
+        <v>0.9973933696746826</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>it is amazing that outstanding service from all personnel is the norm, but it is! also, the nursing staff went the extra mile to make sure that the contrast needle went to the right place. well done.</t>
+          <t>the radiology team was great. i was greeted almost the moment i checked in, they made comfortable and explained my procedure to me. the room temperature was appropriate during my visit.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>it is amazing that outstanding service from all personnel is the norm but it is also the nursing staff went the extra mile to make sure that the contrast needle went to the right place well done</t>
+          <t>the radiology team was great i was greeted almost the moment i checked in they made comfortable and explained my procedure to me the room temperature was appropriate during my visit</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1583,22 +1583,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002588570117950439</v>
+        <v>0.002645969390869141</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9974114298820496</v>
+        <v>0.9973540306091309</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>both katie and stacy were exceptional, kept me informed, very kind and caring._x000d_ demonstrated outstanding professionalism._x000d_ informed me on what they were doing/ what was happening and what the mri accomplished.</t>
+          <t>my first experience at mayo could not have been better! everything went according to schedule and everyone i dealt with was very pleasant and efficient. i've had many iris during the past several years and this one was by far the best. i was actually very comfortable in the machine and the tech who did the test was very efficient and could not have been nicer. all in all, a most pleasant experience!</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>both katie and stacy were exceptional kept me informed very kind and caring x000d demonstrated outstanding professionalism x000d informed me on what they were doing what was happening and what the mri accomplished</t>
+          <t>my first experience at mayo could not have been better everything went according to schedule and everyone i dealt with was very pleasant and efficient i ve had many iris during the past several years and this one was by far the best i was actually very comfortable in the machine and the tech who did the test was very efficient and could not have been nicer all in all a most pleasant experience</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1613,22 +1613,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002863049507141113</v>
+        <v>0.002749860286712646</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9971369504928589</v>
+        <v>0.9972501397132874</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>the mri itself was pretty unpleasant, but the technician was excellent -- sergio, i think was his name. everyone who works at mayo is so helpful and friendly. i appreciate that, especially when one is stressed.</t>
+          <t>both my ultrasound and it scan was on time and proceeded very efficiently. the technicians were excellent. my results were posted faster than i expected.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>the mri itself was pretty unpleasant but the technician was excellent sergio i think was his name everyone who works at mayo is so helpful and friendly i appreciate that especially when one is stressed</t>
+          <t>both my ultrasound and it scan was on time and proceeded very efficiently the technicians were excellent my results were posted faster than i expected</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1643,22 +1643,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003106951713562012</v>
+        <v>0.00300133228302002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.996893048286438</v>
+        <v>0.99699866771698</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>the technician was very friendly and careful to explain the process thoroughly. i think that he is very good at putting patients at easy and making them feel comfortable.</t>
+          <t>the ladies in there took good care of me. a little nervous about the test but with all the items that they use to relax me test went fine with no problem. will definitely go back. the best mri scan i have ever had. relaxed &amp; calm.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>the technician was very friendly and careful to explain the process thoroughly i think that he is very good at putting patients at easy and making them feel comfortable</t>
+          <t>the ladies in there took good care of me a little nervous about the test but with all the items that they use to relax me test went fine with no problem will definitely go back the best mri scan i have ever had relaxed calm</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1673,22 +1673,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003212332725524902</v>
+        <v>0.003068804740905762</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9967876672744751</v>
+        <v>0.9969311952590942</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>i am blessed to be a patient at mayo. to know the medical staff is professional in their care in all fields of testing, diagnosis and final results shows empathy and comfort to me…it gives me confidence knowing mayo is the only medical facility for me!</t>
+          <t>the it was my 4 y/o son, and the tech that picked us up from the room to go to it was understanding and allowed me to carry him to the scan room. they also put some fun rainbow lights on during the scan, which helped make it seem less scary. overall, great experience.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>i am blessed to be a patient at mayo to know the medical staff is professional in their care in all fields of testing diagnosis and final results shows empathy and comfort to me it gives me confidence knowing mayo is the only medical facility for me</t>
+          <t>the it was my 4 y o son and the tech that picked us up from the room to go to it was understanding and allowed me to carry him to the scan room they also put some fun rainbow lights on during the scan which helped make it seem less scary overall great experience</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1703,22 +1703,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003532886505126953</v>
+        <v>0.003080129623413086</v>
       </c>
       <c r="D43" t="n">
-        <v>0.996467113494873</v>
+        <v>0.9969198703765869</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>the mayo clinic scottsdale campus radiology team is excellent. they are knowledgeable, friendly and caring professionals. i always ask to have my mris scheduled with the scottsdale radiology team. they know exactly what needs to be done and how to keep their patients informed and comfortable. i highly recommend them to my family and friends...they are the best in the business. they represent the mayo clinic extremely well.</t>
+          <t>i was very happy with my mri and the technologies tom i he’s very professional and made me feel comfortable within a smaller scanner in the mobile unit. i like how the tech comes on in between and ask how i’m doing and let’s me know what the next scan time is. it’s important to me and others that the technologies takes the time to talk to you and makes you comfortable in such a test that can make many people anxious. a calm</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>the mayo clinic scottsdale campus radiology team is excellent they are knowledgeable friendly and caring professionals i always ask to have my mris scheduled with the scottsdale radiology team they know exactly what needs to be done and how to keep their patients informed and comfortable i highly recommend them to my family and friends they are the best in the business they represent the mayo clinic extremely well</t>
+          <t>i was very happy with my mri and the technologies tom i he s very professional and made me feel comfortable within a smaller scanner in the mobile unit i like how the tech comes on in between and ask how i m doing and let s me know what the next scan time is it s important to me and others that the technologies takes the time to talk to you and makes you comfortable in such a test that can make many people anxious a calm</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1733,22 +1733,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C44" t="n">
-        <v>0.003653824329376221</v>
+        <v>0.003348886966705322</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9963461756706238</v>
+        <v>0.9966511130332947</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>i was very appreciative of the woman who did my catscan. she was reassuring about the process, talked me through it, explained things clearly, friendly and professional. because it was my first one she even spent time next to me to be sure i was ok</t>
+          <t>friendly professional staff. always on schedule. so fortunate to have the mayo team helping my husband.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>i was very appreciative of the woman who did my catscan she was reassuring about the process talked me through it explained things clearly friendly and professional because it was my first one she even spent time next to me to be sure i was ok</t>
+          <t>friendly professional staff always on schedule so fortunate to have the mayo team helping my husband</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1763,22 +1763,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="C45" t="n">
-        <v>0.003695130348205566</v>
+        <v>0.003521621227264404</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9963048696517944</v>
+        <v>0.9964783787727356</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>dr. so and javelin were very reassuring and easy to be comfortable with; dr. so is and has been a light for us in this medical journey</t>
+          <t>overall i am so impressed with the mayo clinic. everyone is so expert and professional. the mri experience was so calm and easy, in what could be a very stressful situation. the nurse who did my iv was very skilled, and i didn’t even have a bruise or wound the next day. the radiology team in the mri room made me very comfortable, checked in often, explained everything and did all very expertly. the results were clear and well-described. this was not my first mri but was the least stressful.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>dr so and javelin were very reassuring and easy to be comfortable with dr so is and has been a light for us in this medical journey</t>
+          <t>overall i am so impressed with the mayo clinic everyone is so expert and professional the mri experience was so calm and easy in what could be a very stressful situation the nurse who did my iv was very skilled and i didn t even have a bruise or wound the next day the radiology team in the mri room made me very comfortable checked in often explained everything and did all very expertly the results were clear and well described this was not my first mri but was the least stressful</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1793,22 +1793,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004152953624725342</v>
+        <v>0.003819942474365234</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9958470463752747</v>
+        <v>0.9961800575256348</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>the whole experience was excellent! everyone was so exceptional, friendly, nice, caring and professional! and the fact that i got my results so fast was unbelievable! i’m only going to go to the mayo clinic even though it’s a five hour drive one way. it’s so worth it! i wish i would have started going there years ago. i would be much better off now. i really appreciate everyone at the mayo!</t>
+          <t>i was very appreciative of the woman who did my catscan. she was reassuring about the process, talked me through it, explained things clearly, friendly and professional. because it was my first one she even spent time next to me to be sure i was ok</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>the whole experience was excellent everyone was so exceptional friendly nice caring and professional and the fact that i got my results so fast was unbelievable i m only going to go to the mayo clinic even though it s a five hour drive one way it s so worth it i wish i would have started going there years ago i would be much better off now i really appreciate everyone at the mayo</t>
+          <t>i was very appreciative of the woman who did my catscan she was reassuring about the process talked me through it explained things clearly friendly and professional because it was my first one she even spent time next to me to be sure i was ok</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1823,22 +1823,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="C47" t="n">
-        <v>0.004661083221435547</v>
+        <v>0.003844559192657471</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9953389167785645</v>
+        <v>0.9961554408073425</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>everything went well - everyone was quite attentive, helpful &amp; friendly. felt like i was in good hands. thanks.</t>
+          <t>everyone receptionist, nurses, doctors, interns made my appointment less stressful. they were respectful, concerned and professional.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>everything went well everyone was quite attentive helpful friendly felt like i was in good hands thanks</t>
+          <t>everyone receptionist nurses doctors interns made my appointment less stressful they were respectful concerned and professional</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -1853,22 +1853,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" t="n">
-        <v>0.004711270332336426</v>
+        <v>0.00389707088470459</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9952887296676636</v>
+        <v>0.9961029291152954</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>the technician was caring and respectful of my anxiety. she made the experience a much better one than i had had in the past. and, the slightly larger tube in this particular mri really helped.</t>
+          <t>all of the staff that were involved in my mri were absolutely wonderful; so patient &amp; understanding. because i have a stimulator in my back, they were totally prepared for me. what a great team!!</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>the technician was caring and respectful of my anxiety she made the experience a much better one than i had had in the past and the slightly larger tube in this particular mri really helped</t>
+          <t>all of the staff that were involved in my mri were absolutely wonderful so patient understanding because i have a stimulator in my back they were totally prepared for me what a great team</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -1883,22 +1883,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005089461803436279</v>
+        <v>0.004220247268676758</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9949105381965637</v>
+        <v>0.9957797527313232</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>the mri tech was very thoughtful. i let him know that i get very claustrophobic and he did what he could to make me comfortable. from covering my eyes with a cloth to using aromatherapy.</t>
+          <t>ahead of schedule, fast and well executed mri. very informative staff</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>the mri tech was very thoughtful i let him know that i get very claustrophobic and he did what he could to make me comfortable from covering my eyes with a cloth to using aromatherapy</t>
+          <t>ahead of schedule fast and well executed mri very informative staff</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -1913,22 +1913,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C50" t="n">
-        <v>0.005872607231140137</v>
+        <v>0.004692018032073975</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9941273927688599</v>
+        <v>0.995307981967926</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>i just want you to know that i have had a very good experience with mayo clinic. i always feel that i am important, and not a number. even though you were a little behind the other day, i never felt rushed, you took your time with me, so i felt you had my best interest in mind. mayo clinic personal, no matter whom, have always treated me with the most respect and concern. i feel like i am part of your family. i could not ask for more than that.</t>
+          <t>the #1 best aspect of treatment at mayo is medical staff. radiology is no different than other departments. the technicians are efficient, friendly, professional. it takes a lot of stress out of getting an mri. consequently, my visit was as good as getting an mri could be. they even praised my breathing!</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>i just want you to know that i have had a very good experience with mayo clinic i always feel that i am important and not a number even though you were a little behind the other day i never felt rushed you took your time with me so i felt you had my best interest in mind mayo clinic personal no matter whom have always treated me with the most respect and concern i feel like i am part of your family i could not ask for more than that</t>
+          <t>the 1 best aspect of treatment at mayo is medical staff radiology is no different than other departments the technicians are efficient friendly professional it takes a lot of stress out of getting an mri consequently my visit was as good as getting an mri could be they even praised my breathing</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -1943,22 +1943,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005916059017181396</v>
+        <v>0.004936516284942627</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9940839409828186</v>
+        <v>0.9950634837150574</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>tech was very compassionate when i had trouble being in the mri tube. his suggestions were helpful and he was kind.</t>
+          <t>everything went well - everyone was quite attentive, helpful &amp; friendly. felt like i was in good hands. thanks.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>tech was very compassionate when i had trouble being in the mri tube his suggestions were helpful and he was kind</t>
+          <t>everything went well everyone was quite attentive helpful friendly felt like i was in good hands thanks</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -1973,22 +1973,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005918562412261963</v>
+        <v>0.005506753921508789</v>
       </c>
       <c r="D52" t="n">
-        <v>0.994081437587738</v>
+        <v>0.9944932460784912</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>the people working with me at the mri site were quite good and seemed caring.</t>
+          <t>the team was very professional. everything was explained from beginning to end. i felt that my procedure and care was important to them. thank you!</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>the people working with me at the mri site were quite good and seemed caring</t>
+          <t>the team was very professional everything was explained from beginning to end i felt that my procedure and care was important to them thank you</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2003,22 +2003,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
-        <v>0.005966246128082275</v>
+        <v>0.005650222301483154</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9940337538719177</v>
+        <v>0.9943497776985168</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>very kind and helpful staff, nurses, and technicians. radiologist's report was concise. wait time was longer than expected, but not extraordinary. after the procedure, the iv injection site bled through the bandage, which was redressed by another traveling nurse who happen to note this when i was leaving the area. although i was not her charge, she addressed the issue and relieved the hematoma. bravo!</t>
+          <t>the department was caring, prompt, and efficient. professionalism, expertise, cleanliness and friendliness all mean so much patients and mayo exceeds in all those areas.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>very kind and helpful staff nurses and technicians radiologist s report was concise wait time was longer than expected but not extraordinary after the procedure the iv injection site bled through the bandage which was redressed by another traveling nurse who happen to note this when i was leaving the area although i was not her charge she addressed the issue and relieved the hematoma bravo</t>
+          <t>the department was caring prompt and efficient professionalism expertise cleanliness and friendliness all mean so much patients and mayo exceeds in all those areas</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2033,22 +2033,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C54" t="n">
-        <v>0.006055653095245361</v>
+        <v>0.005665302276611328</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9939443469047546</v>
+        <v>0.9943346977233887</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>both my ultrasound and it scan was on time and proceeded very efficiently. the technicians were excellent. my results were posted faster than i expected.</t>
+          <t>everyone was so professional and eager to help me. the mri scan was thoroughly explained. great staff who genuinely care for their patients and enjoy what they do. thank you.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>both my ultrasound and it scan was on time and proceeded very efficiently the technicians were excellent my results were posted faster than i expected</t>
+          <t>everyone was so professional and eager to help me the mri scan was thoroughly explained great staff who genuinely care for their patients and enjoy what they do thank you</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2063,22 +2063,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006656050682067871</v>
+        <v>0.005687832832336426</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9933439493179321</v>
+        <v>0.9943121671676636</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>all of the staff that were involved in my mri were absolutely wonderful; so patient &amp; understanding. because i have a stimulator in my back, they were totally prepared for me. what a great team!!</t>
+          <t>i am blessed to be a patient at mayo. to know the medical staff is professional in their care in all fields of testing, diagnosis and final results shows empathy and comfort to me…it gives me confidence knowing mayo is the only medical facility for me!</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>all of the staff that were involved in my mri were absolutely wonderful so patient understanding because i have a stimulator in my back they were totally prepared for me what a great team</t>
+          <t>i am blessed to be a patient at mayo to know the medical staff is professional in their care in all fields of testing diagnosis and final results shows empathy and comfort to me it gives me confidence knowing mayo is the only medical facility for me</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2093,22 +2093,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C56" t="n">
-        <v>0.006658613681793213</v>
+        <v>0.006568491458892822</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9933413863182068</v>
+        <v>0.9934315085411072</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>my encounter with the entire group, from check-in, blood draw to the removal of the i-v tube was superior in every respect! everyone was professional, personable, kind and efficient. they are all the epitome of the highest standards. in retrospect, i am in awe of how mayo finds such spectacular people. the only response from the 'team' as suggested below would be to send my sincerest gratitude to each and every one i encountered.</t>
+          <t>great patient education. my tech was experienced and knowledgeable. she answered all of my questions.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>my encounter with the entire group from check in blood draw to the removal of the i v tube was superior in every respect everyone was professional personable kind and efficient they are all the epitome of the highest standards in retrospect i am in awe of how mayo finds such spectacular people the only response from the team as suggested below would be to send my sincerest gratitude to each and every one i encountered</t>
+          <t>great patient education my tech was experienced and knowledgeable she answered all of my questions</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2123,22 +2123,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="C57" t="n">
-        <v>0.007074594497680664</v>
+        <v>0.006697297096252441</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9929254055023193</v>
+        <v>0.9933027029037476</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>everyone i meet at mayo has a positive attitude and clearly cares about the patient experience. well done</t>
+          <t>i felt cared about, everyone made sure i was as comfortable as i could be for the mri and was told about each test before it was run._x000d_ thank you.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>everyone i meet at mayo has a positive attitude and clearly cares about the patient experience well done</t>
+          <t>i felt cared about everyone made sure i was as comfortable as i could be for the mri and was told about each test before it was run x000d thank you</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2153,22 +2153,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="C58" t="n">
-        <v>0.007471203804016113</v>
+        <v>0.007127821445465088</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9925287961959839</v>
+        <v>0.9928721785545349</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>i was treated very well and had problem at all. the radiology team was very nice and hep</t>
+          <t>the staff was great! everyone i encountered were very good at walking me through the process and keeping me informed. they were courteous, friendly and made the process very manageable. kudos to them.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>i was treated very well and had problem at all the radiology team was very nice and hep</t>
+          <t>the staff was great everyone i encountered were very good at walking me through the process and keeping me informed they were courteous friendly and made the process very manageable kudos to them</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2183,22 +2183,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C59" t="n">
-        <v>0.007710874080657959</v>
+        <v>0.007208585739135742</v>
       </c>
       <c r="D59" t="n">
-        <v>0.992289125919342</v>
+        <v>0.9927914142608643</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>the lady who did the it scan was very nice the whole process was rather quick, she helped me up when i was finished</t>
+          <t>the mri tech was very thoughtful. i let him know that i get very claustrophobic and he did what he could to make me comfortable. from covering my eyes with a cloth to using aromatherapy.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>the lady who did the it scan was very nice the whole process was rather quick she helped me up when i was finished</t>
+          <t>the mri tech was very thoughtful i let him know that i get very claustrophobic and he did what he could to make me comfortable from covering my eyes with a cloth to using aromatherapy</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2213,22 +2213,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="C60" t="n">
-        <v>0.008223891258239746</v>
+        <v>0.007396399974822998</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9917761087417603</v>
+        <v>0.992603600025177</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>it was very easy everyone was friendly helpful and showed concern to make sure i was comfortable and new what would happen next.</t>
+          <t>everyone was so kind and upbeat. i was nervous, but the technicians had me laughing that i forgot i was nervous. the nurse and techs explained everything very thoroughly. i'm unable to see my test results. my doctor is out sick, so it will be quite a while before i can see her. is there anyone i can talk to?</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>it was very easy everyone was friendly helpful and showed concern to make sure i was comfortable and new what would happen next</t>
+          <t>everyone was so kind and upbeat i was nervous but the technicians had me laughing that i forgot i was nervous the nurse and techs explained everything very thoroughly i m unable to see my test results my doctor is out sick so it will be quite a while before i can see her is there anyone i can talk to</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2243,22 +2243,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="C61" t="n">
-        <v>0.008254706859588623</v>
+        <v>0.007456541061401367</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9917452931404114</v>
+        <v>0.9925434589385986</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>i am very confident with the team and look forward to their support during my treatment.</t>
+          <t>it was very easy everyone was friendly helpful and showed concern to make sure i was comfortable and new what would happen next.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>i am very confident with the team and look forward to their support during my treatment</t>
+          <t>it was very easy everyone was friendly helpful and showed concern to make sure i was comfortable and new what would happen next</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2273,22 +2273,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C62" t="n">
-        <v>0.008306324481964111</v>
+        <v>0.007559061050415039</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9916936755180359</v>
+        <v>0.992440938949585</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>fantastic nurses and neck workers 👏 i felt very comfortable working with all the people 😀 👍 and iam doing fantastic, thank you for the help. you people are fantastic 👏</t>
+          <t>mayo staff people were great. very professional and attentive</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>fantastic nurses and neck workers i felt very comfortable working with all the people and iam doing fantastic thank you for the help you people are fantastic</t>
+          <t>mayo staff people were great very professional and attentive</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2303,22 +2303,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C63" t="n">
-        <v>0.008695602416992188</v>
+        <v>0.009057462215423584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9913043975830078</v>
+        <v>0.9909425377845764</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>i was very pleased with the overall experience. mayo continues to impress me with their appointment timely ness &amp; overall attention to details from their care giver</t>
+          <t>it was great. all that i came to contact in were professional, friendly and definitely caring. great experience!</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>i was very pleased with the overall experience mayo continues to impress me with their appointment timely ness overall attention to details from their care giver</t>
+          <t>it was great all that i came to contact in were professional friendly and definitely caring great experience</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2333,22 +2333,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C64" t="n">
-        <v>0.008915901184082031</v>
+        <v>0.009102284908294678</v>
       </c>
       <c r="D64" t="n">
-        <v>0.991084098815918</v>
+        <v>0.9908977150917053</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>the beautiful lady who checked me in was awesome, caring, sweet and very helpful. the technicians were also caring and helpful. their kindness made my day better and i hope whomever reads this lets them know they all made a difference.</t>
+          <t>denise and lauren were very professional and yet fun, making it a less stressful visit. she explained everything as she was going to do it.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>the beautiful lady who checked me in was awesome caring sweet and very helpful the technicians were also caring and helpful their kindness made my day better and i hope whomever reads this lets them know they all made a difference</t>
+          <t>denise and lauren were very professional and yet fun making it a less stressful visit she explained everything as she was going to do it</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2363,22 +2363,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="C65" t="n">
-        <v>0.009410977363586426</v>
+        <v>0.009271383285522461</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9905890226364136</v>
+        <v>0.9907286167144775</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>i was very happy with my mri and the technologies tom i he’s very professional and made me feel comfortable within a smaller scanner in the mobile unit. i like how the tech comes on in between and ask how i’m doing and let’s me know what the next scan time is. it’s important to me and others that the technologies takes the time to talk to you and makes you comfortable in such a test that can make many people anxious. a calm</t>
+          <t>the radiologist was awesome. she was kind, she gave clear instruction. she made me feel comfortable through the it scan.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>i was very happy with my mri and the technologies tom i he s very professional and made me feel comfortable within a smaller scanner in the mobile unit i like how the tech comes on in between and ask how i m doing and let s me know what the next scan time is it s important to me and others that the technologies takes the time to talk to you and makes you comfortable in such a test that can make many people anxious a calm</t>
+          <t>the radiologist was awesome she was kind she gave clear instruction she made me feel comfortable through the it scan</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2393,22 +2393,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C66" t="n">
-        <v>0.009764730930328369</v>
+        <v>0.0100027322769165</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9902352690696716</v>
+        <v>0.9899972677230835</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>the radiology staff were extremely friendly and explained every part of the test in detail. it made the experience much less stressful!</t>
+          <t>when i explained my neck and back issues, they did everything to accommodate comfortable positioning for my mri on my wrist and hand since i could not lay in the preferred position. they were extremely kind and caring.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>the radiology staff were extremely friendly and explained every part of the test in detail it made the experience much less stressful</t>
+          <t>when i explained my neck and back issues they did everything to accommodate comfortable positioning for my mri on my wrist and hand since i could not lay in the preferred position they were extremely kind and caring</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2423,22 +2423,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>0.009894788265228271</v>
+        <v>0.01106107234954834</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9901052117347717</v>
+        <v>0.9889389276504517</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>the radiologist was awesome. she was kind, she gave clear instruction. she made me feel comfortable through the it scan.</t>
+          <t>the mri machine had gone down so appointments were running about an hour behind schedule. the staff did do a great job keeping us informed about the delays, offered to reschedule, and allowed me to wait with my family in between my radiology tests. and after my mri was completed they provided me with a cafeteria voucher to show their appreciation for understanding.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>the radiologist was awesome she was kind she gave clear instruction she made me feel comfortable through the it scan</t>
+          <t>the mri machine had gone down so appointments were running about an hour behind schedule the staff did do a great job keeping us informed about the delays offered to reschedule and allowed me to wait with my family in between my radiology tests and after my mri was completed they provided me with a cafeteria voucher to show their appreciation for understanding</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2453,22 +2453,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01221561431884766</v>
+        <v>0.01162028312683105</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9877843856811523</v>
+        <v>0.9883797168731689</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>the ladies in there took good care of me. a little nervous about the test but with all the items that they use to relax me test went fine with no problem. will definitely go back. the best mri scan i have ever had. relaxed &amp; calm.</t>
+          <t>very professional and pleasant experience. the process began promptly after check-in and the 2 iris were completed well in advance of the time predicted. all personnel were friendly and helpful.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>the ladies in there took good care of me a little nervous about the test but with all the items that they use to relax me test went fine with no problem will definitely go back the best mri scan i have ever had relaxed calm</t>
+          <t>very professional and pleasant experience the process began promptly after check in and the 2 iris were completed well in advance of the time predicted all personnel were friendly and helpful</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2483,22 +2483,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01226305961608887</v>
+        <v>0.01241326332092285</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9877369403839111</v>
+        <v>0.9875867366790771</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ahead of schedule, fast and well executed mri. very informative staff</t>
+          <t>i appreciated them stay late to give me my mri.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ahead of schedule fast and well executed mri very informative staff</t>
+          <t>i appreciated them stay late to give me my mri</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -2513,22 +2513,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01324087381362915</v>
+        <v>0.01262366771697998</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9867591261863708</v>
+        <v>0.98737633228302</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>the team was very professional. everything was explained from beginning to end. i felt that my procedure and care was important to them. thank you!</t>
+          <t>my encounter with the entire group, from check-in, blood draw to the removal of the i-v tube was superior in every respect! everyone was professional, personable, kind and efficient. they are all the epitome of the highest standards. in retrospect, i am in awe of how mayo finds such spectacular people. the only response from the 'team' as suggested below would be to send my sincerest gratitude to each and every one i encountered.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>the team was very professional everything was explained from beginning to end i felt that my procedure and care was important to them thank you</t>
+          <t>my encounter with the entire group from check in blood draw to the removal of the i v tube was superior in every respect everyone was professional personable kind and efficient they are all the epitome of the highest standards in retrospect i am in awe of how mayo finds such spectacular people the only response from the team as suggested below would be to send my sincerest gratitude to each and every one i encountered</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -2543,22 +2543,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01545107364654541</v>
+        <v>0.01450073719024658</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9845489263534546</v>
+        <v>0.9854992628097534</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>impressed by the promptness and professionalism of the check in staff and the gentlemen who took my vitals.</t>
+          <t>the people working with me at the mri site were quite good and seemed caring.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>impressed by the promptness and professionalism of the check in staff and the gentlemen who took my vitals</t>
+          <t>the people working with me at the mri site were quite good and seemed caring</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -2573,22 +2573,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01547569036483765</v>
+        <v>0.01456302404403687</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9845243096351624</v>
+        <v>0.9854369759559631</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>everyone was so professional and eager to help me. the mri scan was thoroughly explained. great staff who genuinely care for their patients and enjoy what they do. thank you.</t>
+          <t>professional experience from everyone. could not be happier with my test results as well. everyone explained in detail what each step of the visit. i was apprehensive when i arrived but after meeting and talking with my health care providers it dissipated.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>everyone was so professional and eager to help me the mri scan was thoroughly explained great staff who genuinely care for their patients and enjoy what they do thank you</t>
+          <t>professional experience from everyone could not be happier with my test results as well everyone explained in detail what each step of the visit i was apprehensive when i arrived but after meeting and talking with my health care providers it dissipated</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2603,22 +2603,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01562947034835815</v>
+        <v>0.01458191871643066</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9843705296516418</v>
+        <v>0.9854180812835693</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>it was an extremely good experience. the techs that took care of me were kind, friendly and very professional. i greatly appreciated all of their help through the test.</t>
+          <t>i am very confident with the team and look forward to their support during my treatment.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>it was an extremely good experience the techs that took care of me were kind friendly and very professional i greatly appreciated all of their help through the test</t>
+          <t>i am very confident with the team and look forward to their support during my treatment</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -2633,22 +2633,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0160750150680542</v>
+        <v>0.01519572734832764</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9839249849319458</v>
+        <v>0.9848042726516724</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>very supportive. there was some confusion about the changing room which caused me some anxiety before the procedure. the music during the procedure helped me relax, and i appreciated the available snacks after the procedure</t>
+          <t>i have had mri’s done in the past that did not go very well. i am claustrophobic, in the past i either could not finish or start the procedure. this time went very well i had no problems with it at all. the main thing that helped was the technician gave me the option to go in feet first. she thought that would be the better choice. that what i did, i could see outside of the tube and had room around my face. i was extremely comfortable with that setting. in the past i could hardly fit in the tube with no room around my face. that is the main reason that past procedure did not go very well. one matures over time and with the understanding of the seriousness and need for this test may have also helped with on anxiety. _x000d_ thank you and thank your team for a job well done._x000d_ sincerely,_x000d_ mark</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>very supportive there was some confusion about the changing room which caused me some anxiety before the procedure the music during the procedure helped me relax and i appreciated the available snacks after the procedure</t>
+          <t>i have had mri s done in the past that did not go very well i am claustrophobic in the past i either could not finish or start the procedure this time went very well i had no problems with it at all the main thing that helped was the technician gave me the option to go in feet first she thought that would be the better choice that what i did i could see outside of the tube and had room around my face i was extremely comfortable with that setting in the past i could hardly fit in the tube with no room around my face that is the main reason that past procedure did not go very well one matures over time and with the understanding of the seriousness and need for this test may have also helped with on anxiety x000d thank you and thank your team for a job well done x000d sincerely x000d mark</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2663,22 +2663,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01713293790817261</v>
+        <v>0.01602202653884888</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9828670620918274</v>
+        <v>0.9839779734611511</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>the department was caring, prompt, and efficient. professionalism, expertise, cleanliness and friendliness all mean so much patients and mayo exceeds in all those areas.</t>
+          <t>the mri itself was pretty unpleasant, but the technician was excellent -- sergio, i think was his name. everyone who works at mayo is so helpful and friendly. i appreciate that, especially when one is stressed.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>the department was caring prompt and efficient professionalism expertise cleanliness and friendliness all mean so much patients and mayo exceeds in all those areas</t>
+          <t>the mri itself was pretty unpleasant but the technician was excellent sergio i think was his name everyone who works at mayo is so helpful and friendly i appreciate that especially when one is stressed</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -2693,22 +2693,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01780378818511963</v>
+        <v>0.0161893367767334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9821962118148804</v>
+        <v>0.9838106632232666</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>the technician was very personable and efficient. i was impressed. thank you for another good experience at mayo..</t>
+          <t>when i came in for my mri, all the members of the team were very caring and did a good job of communicating with me. logistically everything ran smoothly and potential issues had already been anticipated and planned for so that they were not an issue.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>the technician was very personable and efficient i was impressed thank you for another good experience at mayo</t>
+          <t>when i came in for my mri all the members of the team were very caring and did a good job of communicating with me logistically everything ran smoothly and potential issues had already been anticipated and planned for so that they were not an issue</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -2723,22 +2723,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02626174688339233</v>
+        <v>0.01764410734176636</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9737382531166077</v>
+        <v>0.9823558926582336</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>great patient education. my tech was experienced and knowledgeable. she answered all of my questions.</t>
+          <t>dr. so and javelin were very reassuring and easy to be comfortable with; dr. so is and has been a light for us in this medical journey</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>great patient education my tech was experienced and knowledgeable she answered all of my questions</t>
+          <t>dr so and javelin were very reassuring and easy to be comfortable with dr so is and has been a light for us in this medical journey</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -2753,22 +2753,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02718085050582886</v>
+        <v>0.01799404621124268</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9728191494941711</v>
+        <v>0.9820059537887573</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>i felt cared about, everyone made sure i was as comfortable as i could be for the mri and was told about each test before it was run._x000d_ thank you.</t>
+          <t>excellent experience. quick check-in; extremely limited wait time until called for procedure; tech was personable and assistive; procedure was quick &amp; without incident. absolutely no complaints.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>i felt cared about everyone made sure i was as comfortable as i could be for the mri and was told about each test before it was run x000d thank you</t>
+          <t>excellent experience quick check in extremely limited wait time until called for procedure tech was personable and assistive procedure was quick without incident absolutely no complaints</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -2783,22 +2783,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03354591131210327</v>
+        <v>0.01895016431808472</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9664540886878967</v>
+        <v>0.9810498356819153</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>excellent care and very sympathetic.. the care o received was outstanding. thank you for being patient and understanding with me.</t>
+          <t>fantastic nurses and neck workers 👏 i felt very comfortable working with all the people 😀 👍 and iam doing fantastic, thank you for the help. you people are fantastic 👏</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>excellent care and very sympathetic the care o received was outstanding thank you for being patient and understanding with me</t>
+          <t>fantastic nurses and neck workers i felt very comfortable working with all the people and iam doing fantastic thank you for the help you people are fantastic</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -2813,22 +2813,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0405040979385376</v>
+        <v>0.01941013336181641</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9594959020614624</v>
+        <v>0.9805898666381836</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>everyone in radiology was incredible, friendly attentive, concerned, professional. i had a 3 level mri which was time consuming but they made sure i was comfortable throughout and assured me that the film they got was excellent.</t>
+          <t>everyone i meet at mayo has a positive attitude and clearly cares about the patient experience. well done</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>everyone in radiology was incredible friendly attentive concerned professional i had a 3 level mri which was time consuming but they made sure i was comfortable throughout and assured me that the film they got was excellent</t>
+          <t>everyone i meet at mayo has a positive attitude and clearly cares about the patient experience well done</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -2843,22 +2843,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04284018278121948</v>
+        <v>0.02032947540283203</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9571598172187805</v>
+        <v>0.979670524597168</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>my rad team (chuck wintergreen &amp; john larsen) was very professional, helpful and courteous. department clean and organized. actual mri went as expected. impressive turnaround time for images on reads and radiologist evaluation. great job! thanks for your help. on to the next step. dan walters - photographer, mayo clinic az.</t>
+          <t>sean campbell was great! please keep him as i’m sure he is a wonderful addition to the team. kept me informed about the entire process and was very pleasant. even though i wasn’t feeling well, i remember him being the highlight of my experience. definitely keep him around.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>my rad team chuck wintergreen john larsen was very professional helpful and courteous department clean and organized actual mri went as expected impressive turnaround time for images on reads and radiologist evaluation great job thanks for your help on to the next step dan walters photographer mayo clinic az</t>
+          <t>sean campbell was great please keep him as i m sure he is a wonderful addition to the team kept me informed about the entire process and was very pleasant even though i wasn t feeling well i remember him being the highlight of my experience definitely keep him around</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -2873,22 +2873,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04354768991470337</v>
+        <v>0.02253246307373047</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9564523100852966</v>
+        <v>0.9774675369262695</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>a big thank you to the team for their excellent communication and care</t>
+          <t>techs in mri were very caring and took their time to answer any questions a patient might have. nurses in pay were excellent. they set me at ease and even made me laugh a few times</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>a big thank you to the team for their excellent communication and care</t>
+          <t>techs in mri were very caring and took their time to answer any questions a patient might have nurses in pay were excellent they set me at ease and even made me laugh a few times</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -2903,22 +2903,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04513722658157349</v>
+        <v>0.0244821310043335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9548627734184265</v>
+        <v>0.9755178689956665</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>when i came in for my mri, all the members of the team were very caring and did a good job of communicating with me. logistically everything ran smoothly and potential issues had already been anticipated and planned for so that they were not an issue.</t>
+          <t>i just want you to know that i have had a very good experience with mayo clinic. i always feel that i am important, and not a number. even though you were a little behind the other day, i never felt rushed, you took your time with me, so i felt you had my best interest in mind. mayo clinic personal, no matter whom, have always treated me with the most respect and concern. i feel like i am part of your family. i could not ask for more than that.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>when i came in for my mri all the members of the team were very caring and did a good job of communicating with me logistically everything ran smoothly and potential issues had already been anticipated and planned for so that they were not an issue</t>
+          <t>i just want you to know that i have had a very good experience with mayo clinic i always feel that i am important and not a number even though you were a little behind the other day i never felt rushed you took your time with me so i felt you had my best interest in mind mayo clinic personal no matter whom have always treated me with the most respect and concern i feel like i am part of your family i could not ask for more than that</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -2933,22 +2933,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04540181159973145</v>
+        <v>0.02473890781402588</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9545981884002686</v>
+        <v>0.9752610921859741</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>techs in mri were very caring and took their time to answer any questions a patient might have. nurses in pay were excellent. they set me at ease and even made me laugh a few times</t>
+          <t>i was treated very well and had problem at all. the radiology team was very nice and hep</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>techs in mri were very caring and took their time to answer any questions a patient might have nurses in pay were excellent they set me at ease and even made me laugh a few times</t>
+          <t>i was treated very well and had problem at all the radiology team was very nice and hep</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -2963,22 +2963,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0540955662727356</v>
+        <v>0.02541500329971313</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9459044337272644</v>
+        <v>0.9745849967002869</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>the techs worked with me thou a leg cramp/spasm. they were great</t>
+          <t>excellent care and very sympathetic.. the care o received was outstanding. thank you for being patient and understanding with me.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>the techs worked with me thou a leg cramp spasm they were great</t>
+          <t>excellent care and very sympathetic the care o received was outstanding thank you for being patient and understanding with me</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -2993,22 +2993,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="C86" t="n">
-        <v>0.05423164367675781</v>
+        <v>0.02896469831466675</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9457683563232422</v>
+        <v>0.9710353016853333</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>prompt, courteous, knowledgeable folks. my first mri and the technician made me feel very comfortable.</t>
+          <t>tech was exceptionally good with my daughter and explained what he would be doing at each step. very impressed with the human element of this group. thank you for easing her fears.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>prompt courteous knowledgeable folks my first mri and the technician made me feel very comfortable</t>
+          <t>tech was exceptionally good with my daughter and explained what he would be doing at each step very impressed with the human element of this group thank you for easing her fears</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3023,22 +3023,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C87" t="n">
-        <v>0.05635541677474976</v>
+        <v>0.02913248538970947</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9436445832252502</v>
+        <v>0.9708675146102905</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>i have had mri’s done in the past that did not go very well. i am claustrophobic, in the past i either could not finish or start the procedure. this time went very well i had no problems with it at all. the main thing that helped was the technician gave me the option to go in feet first. she thought that would be the better choice. that what i did, i could see outside of the tube and had room around my face. i was extremely comfortable with that setting. in the past i could hardly fit in the tube with no room around my face. that is the main reason that past procedure did not go very well. one matures over time and with the understanding of the seriousness and need for this test may have also helped with on anxiety. _x000d_ thank you and thank your team for a job well done._x000d_ sincerely,_x000d_ mark</t>
+          <t>the mayo clinic scottsdale campus radiology team is excellent. they are knowledgeable, friendly and caring professionals. i always ask to have my mris scheduled with the scottsdale radiology team. they know exactly what needs to be done and how to keep their patients informed and comfortable. i highly recommend them to my family and friends...they are the best in the business. they represent the mayo clinic extremely well.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>i have had mri s done in the past that did not go very well i am claustrophobic in the past i either could not finish or start the procedure this time went very well i had no problems with it at all the main thing that helped was the technician gave me the option to go in feet first she thought that would be the better choice that what i did i could see outside of the tube and had room around my face i was extremely comfortable with that setting in the past i could hardly fit in the tube with no room around my face that is the main reason that past procedure did not go very well one matures over time and with the understanding of the seriousness and need for this test may have also helped with on anxiety x000d thank you and thank your team for a job well done x000d sincerely x000d mark</t>
+          <t>the mayo clinic scottsdale campus radiology team is excellent they are knowledgeable friendly and caring professionals i always ask to have my mris scheduled with the scottsdale radiology team they know exactly what needs to be done and how to keep their patients informed and comfortable i highly recommend them to my family and friends they are the best in the business they represent the mayo clinic extremely well</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3053,22 +3053,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="C88" t="n">
-        <v>0.05660754442214966</v>
+        <v>0.03219437599182129</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9433924555778503</v>
+        <v>0.9678056240081787</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>thanks to all. very professional put me at ease. prompt in and out in a very timely manner</t>
+          <t>all nurses, techs were so nice and available.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>thanks to all very professional put me at ease prompt in and out in a very timely manner</t>
+          <t>all nurses techs were so nice and available</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3083,22 +3083,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="C89" t="n">
-        <v>0.05923265218734741</v>
+        <v>0.03701210021972656</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9407673478126526</v>
+        <v>0.9629878997802734</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>denise and lauren were very professional and yet fun, making it a less stressful visit. she explained everything as she was going to do it.</t>
+          <t>it was an extremely good experience. the techs that took care of me were kind, friendly and very professional. i greatly appreciated all of their help through the test.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>denise and lauren were very professional and yet fun making it a less stressful visit she explained everything as she was going to do it</t>
+          <t>it was an extremely good experience the techs that took care of me were kind friendly and very professional i greatly appreciated all of their help through the test</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3113,22 +3113,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C90" t="n">
-        <v>0.06216967105865479</v>
+        <v>0.03755921125411987</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9378303289413452</v>
+        <v>0.9624407887458801</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>from the very first greeting at checking in primary care my experience was great. friendly and professional</t>
+          <t>the senior technician was very nice and very concerned about my comfort.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>from the very first greeting at checking in primary care my experience was great friendly and professional</t>
+          <t>the senior technician was very nice and very concerned about my comfort</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3143,22 +3143,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06703460216522217</v>
+        <v>0.04051661491394043</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9329653978347778</v>
+        <v>0.9594833850860596</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>the tech was very caring, professional and sensitive to my claustrophobic state.</t>
+          <t>very supportive. there was some confusion about the changing room which caused me some anxiety before the procedure. the music during the procedure helped me relax, and i appreciated the available snacks after the procedure</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>the tech was very caring professional and sensitive to my claustrophobic state</t>
+          <t>very supportive there was some confusion about the changing room which caused me some anxiety before the procedure the music during the procedure helped me relax and i appreciated the available snacks after the procedure</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3173,22 +3173,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="C92" t="n">
-        <v>0.06976264715194702</v>
+        <v>0.0418848991394043</v>
       </c>
       <c r="D92" t="n">
-        <v>0.930237352848053</v>
+        <v>0.9581151008605957</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>it was wonderful, you have a wonderful staff . they are so caring and understanding. i truly can not thank them enough for all they do to help us when we are concerned. i am and will always be "team mayo" thank you.</t>
+          <t>i was very happy with the care given and concern about my comfort during the mri.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>it was wonderful you have a wonderful staff they are so caring and understanding i truly can not thank them enough for all they do to help us when we are concerned i am and will always be team mayo thank you</t>
+          <t>i was very happy with the care given and concern about my comfort during the mri</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3203,22 +3203,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>0.07117927074432373</v>
+        <v>0.0435604453086853</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9288207292556763</v>
+        <v>0.9564395546913147</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>friendly and very efficient. the nurses made an uncomfortable procedure quit tolerable.</t>
+          <t>the team that took care of my mri/me was so great. very nice, informative, and patient_x000d_ thank you</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>friendly and very efficient the nurses made an uncomfortable procedure quit tolerable</t>
+          <t>the team that took care of my mri me was so great very nice informative and patient x000d thank you</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3233,22 +3233,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C94" t="n">
-        <v>0.07500821352005005</v>
+        <v>0.04850947856903076</v>
       </c>
       <c r="D94" t="n">
-        <v>0.92499178647995</v>
+        <v>0.9514905214309692</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>great, friendly people. like everyone i have met at mayo.</t>
+          <t>the staff was so welcoming, and accommodating. everyone was so incredibly nice and helpful.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>great friendly people like everyone i have met at mayo</t>
+          <t>the staff was so welcoming and accommodating everyone was so incredibly nice and helpful</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -3263,22 +3263,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07702130079269409</v>
+        <v>0.05099225044250488</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9229786992073059</v>
+        <v>0.9490077495574951</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>the technicians were friendly, kind and polite, getting me settled in fine and explaining what was happening along the way. they made sure i was steady on my feet when standing up after and walked me back to my room.</t>
+          <t>mollie, jen, and andrew were helpful and professional.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>the technicians were friendly kind and polite getting me settled in fine and explaining what was happening along the way they made sure i was steady on my feet when standing up after and walked me back to my room</t>
+          <t>mollie jen and andrew were helpful and professional</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -3293,22 +3293,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07710772752761841</v>
+        <v>0.05262124538421631</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9228922724723816</v>
+        <v>0.9473787546157837</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>from when i checked in until i left i felt so comfortable and loved everyone i came in contact with.</t>
+          <t>very kind and helpful staff, nurses, and technicians. radiologist's report was concise. wait time was longer than expected, but not extraordinary. after the procedure, the iv injection site bled through the bandage, which was redressed by another traveling nurse who happen to note this when i was leaving the area. although i was not her charge, she addressed the issue and relieved the hematoma. bravo!</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>from when i checked in until i left i felt so comfortable and loved everyone i came in contact with</t>
+          <t>very kind and helpful staff nurses and technicians radiologist s report was concise wait time was longer than expected but not extraordinary after the procedure the iv injection site bled through the bandage which was redressed by another traveling nurse who happen to note this when i was leaving the area although i was not her charge she addressed the issue and relieved the hematoma bravo</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -3323,22 +3323,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07805734872817993</v>
+        <v>0.05456161499023438</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9219426512718201</v>
+        <v>0.9454383850097656</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>when i explained my neck and back issues, they did everything to accommodate comfortable positioning for my mri on my wrist and hand since i could not lay in the preferred position. they were extremely kind and caring.</t>
+          <t>i was very pleased with the overall experience. mayo continues to impress me with their appointment timely ness &amp; overall attention to details from their care giver</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>when i explained my neck and back issues they did everything to accommodate comfortable positioning for my mri on my wrist and hand since i could not lay in the preferred position they were extremely kind and caring</t>
+          <t>i was very pleased with the overall experience mayo continues to impress me with their appointment timely ness overall attention to details from their care giver</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -3353,22 +3353,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07936346530914307</v>
+        <v>0.06226551532745361</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9206365346908569</v>
+        <v>0.9377344846725464</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>coordination among and between staff members was excellent ....... in and out in the least possible time with outstanding explanations at every step.</t>
+          <t>friendly and very efficient. the nurses made an uncomfortable procedure quit tolerable.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>coordination among and between staff members was excellent in and out in the least possible time with outstanding explanations at every step</t>
+          <t>friendly and very efficient the nurses made an uncomfortable procedure quit tolerable</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -3383,22 +3383,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09130126237869263</v>
+        <v>0.06440585851669312</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9086987376213074</v>
+        <v>0.9355941414833069</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>sean campbell was great! please keep him as i’m sure he is a wonderful addition to the team. kept me informed about the entire process and was very pleasant. even though i wasn’t feeling well, i remember him being the highlight of my experience. definitely keep him around.</t>
+          <t>i had extensive lower extremity x-rays ordered and the two ladies who took them were terrific and very helpful</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>sean campbell was great please keep him as i m sure he is a wonderful addition to the team kept me informed about the entire process and was very pleasant even though i wasn t feeling well i remember him being the highlight of my experience definitely keep him around</t>
+          <t>i had extensive lower extremity x rays ordered and the two ladies who took them were terrific and very helpful</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -3416,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09731137752532959</v>
+        <v>0.06500309705734253</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9026886224746704</v>
+        <v>0.9349969029426575</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3443,22 +3443,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09865188598632812</v>
+        <v>0.07519716024398804</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9013481140136719</v>
+        <v>0.924802839756012</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>excellent nurses and technicians. caring, decisive, knowledgeable, and respectful. also friendly.</t>
+          <t>when you are not feeling well and are very nausea it can be hard to move from one bed to another, both ladies in the radiology room helped me. i appreciate them being patient with me, thank you.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>excellent nurses and technicians caring decisive knowledgeable and respectful also friendly</t>
+          <t>when you are not feeling well and are very nausea it can be hard to move from one bed to another both ladies in the radiology room helped me i appreciate them being patient with me thank you</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -3473,22 +3473,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1004350185394287</v>
+        <v>0.07823103666305542</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8995649814605713</v>
+        <v>0.9217689633369446</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>the staff was so welcoming, and accommodating. everyone was so incredibly nice and helpful.</t>
+          <t>excelent, well organized management of the process put me at ease. thank you!</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>the staff was so welcoming and accommodating everyone was so incredibly nice and helpful</t>
+          <t>excelent well organized management of the process put me at ease thank you</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -3503,22 +3503,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1008583903312683</v>
+        <v>0.08212453126907349</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8991416096687317</v>
+        <v>0.9178754687309265</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>everyone that worked with me for the mri biopsy was just wonderful. there caring and personal touch made a hard experience much mor comforting…</t>
+          <t>excellent service, the team are always so thoughtful, kind, considerate and professional. thank you and god bless each of you for your hard work and dedication!!</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>everyone that worked with me for the mri biopsy was just wonderful there caring and personal touch made a hard experience much mor comforting</t>
+          <t>excellent service the team are always so thoughtful kind considerate and professional thank you and god bless each of you for your hard work and dedication</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -3533,22 +3533,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1124047040939331</v>
+        <v>0.0837370753288269</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8875952959060669</v>
+        <v>0.9162629246711731</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>two gentlemen, they were awesome. very kind, friendly and communicative throughout the entire process. they obviously care about what they're doing and whom they're doing it for. bravo! can't wait to go back! (not really)</t>
+          <t>they were awesome and super caring professionals. i feel very blessed to have been seen by them</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>two gentlemen they were awesome very kind friendly and communicative throughout the entire process they obviously care about what they re doing and whom they re doing it for bravo can t wait to go back not really</t>
+          <t>they were awesome and super caring professionals i feel very blessed to have been seen by them</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -3563,22 +3563,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1205956935882568</v>
+        <v>0.08844101428985596</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8794043064117432</v>
+        <v>0.911558985710144</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>the team that took care of my mri/me was so great. very nice, informative, and patient_x000d_ thank you</t>
+          <t>coordination among and between staff members was excellent ....... in and out in the least possible time with outstanding explanations at every step.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>the team that took care of my mri me was so great very nice informative and patient x000d thank you</t>
+          <t>coordination among and between staff members was excellent in and out in the least possible time with outstanding explanations at every step</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -3593,22 +3593,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1208093166351318</v>
+        <v>0.09745877981185913</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8791906833648682</v>
+        <v>0.9025412201881409</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>very professional and pleasant experience. the process began promptly after check-in and the 2 iris were completed well in advance of the time predicted. all personnel were friendly and helpful.</t>
+          <t>my 2 recent iris were surprisingly pleasant! i dozed off briefly during each one. the staff was very professional and had a great bedside manner!</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>very professional and pleasant experience the process began promptly after check in and the 2 iris were completed well in advance of the time predicted all personnel were friendly and helpful</t>
+          <t>my 2 recent iris were surprisingly pleasant i dozed off briefly during each one the staff was very professional and had a great bedside manner</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -3623,22 +3623,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1210173964500427</v>
+        <v>0.1018052697181702</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8789826035499573</v>
+        <v>0.8981947302818298</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>the staff was great! everyone i encountered were very good at walking me through the process and keeping me informed. they were courteous, friendly and made the process very manageable. kudos to them.</t>
+          <t>the techs worked with me thou a leg cramp/spasm. they were great</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>the staff was great everyone i encountered were very good at walking me through the process and keeping me informed they were courteous friendly and made the process very manageable kudos to them</t>
+          <t>the techs worked with me thou a leg cramp spasm they were great</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -3653,22 +3653,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1284688711166382</v>
+        <v>0.1065211296081543</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8715311288833618</v>
+        <v>0.8934788703918457</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>the senior technician was very nice and very concerned about my comfort.</t>
+          <t>the lady who did the it scan was very nice the whole process was rather quick, she helped me up when i was finished</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>the senior technician was very nice and very concerned about my comfort</t>
+          <t>the lady who did the it scan was very nice the whole process was rather quick she helped me up when i was finished</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -3683,22 +3683,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1367380023002625</v>
+        <v>0.1117281913757324</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8632619976997375</v>
+        <v>0.8882718086242676</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>staff was very considerate, professional and respectful. kept me informed and took care of my every need. many thanks.</t>
+          <t>excellent experience for my first mri. thank you to the technicians!</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>staff was very considerate professional and respectful kept me informed and took care of my every need many thanks</t>
+          <t>excellent experience for my first mri thank you to the technicians</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -3713,22 +3713,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1391252279281616</v>
+        <v>0.1119828224182129</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8608747720718384</v>
+        <v>0.8880171775817871</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>everything was great. i arrived early and was taken in for my it scan ahead of my scheduled time. the tech was very professional. the whole process took less than 15 minutes. and my test results were available online within 48 hours.</t>
+          <t>everyone in radiology was incredible, friendly attentive, concerned, professional. i had a 3 level mri which was time consuming but they made sure i was comfortable throughout and assured me that the film they got was excellent.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>everything was great i arrived early and was taken in for my it scan ahead of my scheduled time the tech was very professional the whole process took less than 15 minutes and my test results were available online within 48 hours</t>
+          <t>everyone in radiology was incredible friendly attentive concerned professional i had a 3 level mri which was time consuming but they made sure i was comfortable throughout and assured me that the film they got was excellent</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -3743,22 +3743,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1454591155052185</v>
+        <v>0.1140612959861755</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8545408844947815</v>
+        <v>0.8859387040138245</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>the staff was very pleasant and helpful. they treated me like i was family, and they made me feel at home.</t>
+          <t>my rad team (chuck wintergreen &amp; john larsen) was very professional, helpful and courteous. department clean and organized. actual mri went as expected. impressive turnaround time for images on reads and radiologist evaluation. great job! thanks for your help. on to the next step. dan walters - photographer, mayo clinic az.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>the staff was very pleasant and helpful they treated me like i was family and they made me feel at home</t>
+          <t>my rad team chuck wintergreen john larsen was very professional helpful and courteous department clean and organized actual mri went as expected impressive turnaround time for images on reads and radiologist evaluation great job thanks for your help on to the next step dan walters photographer mayo clinic az</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -3773,22 +3773,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1517605781555176</v>
+        <v>0.126746654510498</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8482394218444824</v>
+        <v>0.873253345489502</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>it was great. all that i came to contact in were professional, friendly and definitely caring. great experience!</t>
+          <t>from the very first greeting at checking in primary care my experience was great. friendly and professional</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>it was great all that i came to contact in were professional friendly and definitely caring great experience</t>
+          <t>from the very first greeting at checking in primary care my experience was great friendly and professional</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -3803,22 +3803,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1537758708000183</v>
+        <v>0.1313319802284241</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8462241291999817</v>
+        <v>0.8686680197715759</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>everyone was so kind and upbeat. i was nervous, but the technicians had me laughing that i forgot i was nervous. the nurse and techs explained everything very thoroughly. i'm unable to see my test results. my doctor is out sick, so it will be quite a while before i can see her. is there anyone i can talk to?</t>
+          <t>very professional experience, whole process was smooth and well orchestrated, minimal to no waiting around.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>everyone was so kind and upbeat i was nervous but the technicians had me laughing that i forgot i was nervous the nurse and techs explained everything very thoroughly i m unable to see my test results my doctor is out sick so it will be quite a while before i can see her is there anyone i can talk to</t>
+          <t>very professional experience whole process was smooth and well orchestrated minimal to no waiting around</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -3833,22 +3833,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1575332880020142</v>
+        <v>0.1382846236228943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8424667119979858</v>
+        <v>0.8617153763771057</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>very pleased with your service and helpfulness and pleasant attitude of your staff</t>
+          <t>knowledgeable and courteous staff. loved every minute of it.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>very pleased with your service and helpfulness and pleasant attitude of your staff</t>
+          <t>knowledgeable and courteous staff loved every minute of it</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -3863,22 +3863,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1602715849876404</v>
+        <v>0.1424514055252075</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8397284150123596</v>
+        <v>0.8575485944747925</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>all nurses, techs were so nice and available.</t>
+          <t>reasonably efficient and timely. especially, capable and patient friendly person inserting and removing the iv.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>all nurses techs were so nice and available</t>
+          <t>reasonably efficient and timely especially capable and patient friendly person inserting and removing the iv</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -3893,22 +3893,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1674653887748718</v>
+        <v>0.1434265375137329</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8325346112251282</v>
+        <v>0.8565734624862671</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>very professional experience, whole process was smooth and well orchestrated, minimal to no waiting around.</t>
+          <t>lab tech was fantastic! very friendly, courteous, personable and painless!</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>very professional experience whole process was smooth and well orchestrated minimal to no waiting around</t>
+          <t>lab tech was fantastic very friendly courteous personable and painless</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -3923,22 +3923,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1691308617591858</v>
+        <v>0.15294349193573</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8308691382408142</v>
+        <v>0.84705650806427</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>i appreciated them stay late to give me my mri.</t>
+          <t>everyone was very nice and accommodating. i was given a new warm blanket and love coming to mayo for everything.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>i appreciated them stay late to give me my mri</t>
+          <t>everyone was very nice and accommodating i was given a new warm blanket and love coming to mayo for everything</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -3953,22 +3953,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1717060804367065</v>
+        <v>0.1582268476486206</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8282939195632935</v>
+        <v>0.8417731523513794</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>technicians were outstanding. their communication with me throughout the mri made this the most comfortable scan i have ever had ( and i’ve had many).</t>
+          <t>patrick was great! just what i expected from mayo clinic!</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>technicians were outstanding their communication with me throughout the mri made this the most comfortable scan i have ever had and i ve had many</t>
+          <t>patrick was great just what i expected from mayo clinic</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -3983,22 +3983,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1739683747291565</v>
+        <v>0.1597331762313843</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8260316252708435</v>
+        <v>0.8402668237686157</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>tech was exceptionally good with my daughter and explained what he would be doing at each step. very impressed with the human element of this group. thank you for easing her fears.</t>
+          <t>thanks to all. very professional put me at ease. prompt in and out in a very timely manner</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>tech was exceptionally good with my daughter and explained what he would be doing at each step very impressed with the human element of this group thank you for easing her fears</t>
+          <t>thanks to all very professional put me at ease prompt in and out in a very timely manner</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -4013,22 +4013,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1765866279602051</v>
+        <v>0.1649060845375061</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8234133720397949</v>
+        <v>0.8350939154624939</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>no wait. steven was accommodating and skilled tech. went above &amp; beyond to make me feel safe and comfortable.</t>
+          <t>caring. and detailed. and kind. and efficient. so lucky to have your radiology team. all of us.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>no wait steven was accommodating and skilled tech went above beyond to make me feel safe and comfortable</t>
+          <t>caring and detailed and kind and efficient so lucky to have your radiology team all of us</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -4043,22 +4043,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C121" t="n">
-        <v>0.183762788772583</v>
+        <v>0.1737708449363708</v>
       </c>
       <c r="D121" t="n">
-        <v>0.816237211227417</v>
+        <v>0.8262291550636292</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>they were great. from the check in to check out. we had a glitch with the machine and they talked me through the whole thing</t>
+          <t>staff was very considerate, professional and respectful. kept me informed and took care of my every need. many thanks.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>they were great from the check in to check out we had a glitch with the machine and they talked me through the whole thing</t>
+          <t>staff was very considerate professional and respectful kept me informed and took care of my every need many thanks</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4073,22 +4073,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1875254511833191</v>
+        <v>0.1756129860877991</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8124745488166809</v>
+        <v>0.8243870139122009</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>i really liked the staff and how kind and patient they were.</t>
+          <t>every team member that i met was friendly, professional, helpful, compassionate and explained each step of the mri. good team, great people.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>i really liked the staff and how kind and patient they were</t>
+          <t>every team member that i met was friendly professional helpful compassionate and explained each step of the mri good team great people</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -4103,22 +4103,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2022594809532166</v>
+        <v>0.1761179566383362</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7977405190467834</v>
+        <v>0.8238820433616638</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>reasonably efficient and timely. especially, capable and patient friendly person inserting and removing the iv.</t>
+          <t>everything at my was extremely well organized and all the personnel i came in contact with were extremely helpful. this is not idle praise; i was very impressed. paul flaggman d.o.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>reasonably efficient and timely especially capable and patient friendly person inserting and removing the iv</t>
+          <t>everything at my was extremely well organized and all the personnel i came in contact with were extremely helpful this is not idle praise i was very impressed paul flaggman d o</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -4133,22 +4133,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2194385528564453</v>
+        <v>0.1777597069740295</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7805614471435547</v>
+        <v>0.8222402930259705</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>lab tech was fantastic! very friendly, courteous, personable and painless!</t>
+          <t>everyone was very professional and nice. my technician, "robert" was excellent!!</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>lab tech was fantastic very friendly courteous personable and painless</t>
+          <t>everyone was very professional and nice my technician robert was excellent</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -4163,22 +4163,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2274034023284912</v>
+        <v>0.1905665397644043</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7725965976715088</v>
+        <v>0.8094334602355957</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>could not have been better. in and out very quickly and friendly and professional staff</t>
+          <t>everyone that worked with me for the mri biopsy was just wonderful. there caring and personal touch made a hard experience much mor comforting…</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>could not have been better in and out very quickly and friendly and professional staff</t>
+          <t>everyone that worked with me for the mri biopsy was just wonderful there caring and personal touch made a hard experience much mor comforting</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -4193,22 +4193,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2405725717544556</v>
+        <v>0.1923021078109741</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7594274282455444</v>
+        <v>0.8076978921890259</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>excellent service, the team are always so thoughtful, kind, considerate and professional. thank you and god bless each of you for your hard work and dedication!!</t>
+          <t>i really liked the staff and how kind and patient they were.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>excellent service the team are always so thoughtful kind considerate and professional thank you and god bless each of you for your hard work and dedication</t>
+          <t>i really liked the staff and how kind and patient they were</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -4223,22 +4223,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2550336718559265</v>
+        <v>0.1950471997261047</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7449663281440735</v>
+        <v>0.8049528002738953</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>everyone i interacted with the morning of my exam was extremely kind considerate and</t>
+          <t>everything was great. i arrived early and was taken in for my it scan ahead of my scheduled time. the tech was very professional. the whole process took less than 15 minutes. and my test results were available online within 48 hours.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>everyone i interacted with the morning of my exam was extremely kind considerate and</t>
+          <t>everything was great i arrived early and was taken in for my it scan ahead of my scheduled time the tech was very professional the whole process took less than 15 minutes and my test results were available online within 48 hours</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -4253,22 +4253,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2596107721328735</v>
+        <v>0.2126606702804565</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7403892278671265</v>
+        <v>0.7873393297195435</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>everyone was very nice and accommodating. i was given a new warm blanket and love coming to mayo for everything.</t>
+          <t>the staff was amazing as always!</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>everyone was very nice and accommodating i was given a new warm blanket and love coming to mayo for everything</t>
+          <t>the staff was amazing as always</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4286,10 +4286,10 @@
         <v>87</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2718085646629333</v>
+        <v>0.2137624025344849</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7281914353370667</v>
+        <v>0.7862375974655151</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4313,22 +4313,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2917957901954651</v>
+        <v>0.2169491648674011</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7082042098045349</v>
+        <v>0.7830508351325989</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>every team member that i met was friendly, professional, helpful, compassionate and explained each step of the mri. good team, great people.</t>
+          <t>the technicians were very kind and helpful through the whole process. i am so grateful</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>every team member that i met was friendly professional helpful compassionate and explained each step of the mri good team great people</t>
+          <t>the technicians were very kind and helpful through the whole process i am so grateful</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -4343,22 +4343,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3182789087295532</v>
+        <v>0.2177513241767883</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6817210912704468</v>
+        <v>0.7822486758232117</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>everyone was friendly and helpful. they explained everything thoroughly. i very much appreciated the whole experience</t>
+          <t>technicians were outstanding. their communication with me throughout the mri made this the most comfortable scan i have ever had ( and i’ve had many).</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>everyone was friendly and helpful they explained everything thoroughly i very much appreciated the whole experience</t>
+          <t>technicians were outstanding their communication with me throughout the mri made this the most comfortable scan i have ever had and i ve had many</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -4373,22 +4373,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3307453989982605</v>
+        <v>0.2212062478065491</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6692546010017395</v>
+        <v>0.7787937521934509</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>everyone is very caring and attentive. much different than any other facility i have had mri’s done. thank yo</t>
+          <t>the staff was very pleasant and helpful. they treated me like i was family, and they made me feel at home.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>everyone is very caring and attentive much different than any other facility i have had mri s done thank yo</t>
+          <t>the staff was very pleasant and helpful they treated me like i was family and they made me feel at home</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -4403,22 +4403,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3517726063728333</v>
+        <v>0.2420862317085266</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6482273936271667</v>
+        <v>0.7579137682914734</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>the people were very knowledgeable and pleasant to work with</t>
+          <t>everyone is very caring and attentive. much different than any other facility i have had mri’s done. thank yo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>the people were very knowledgeable and pleasant to work with</t>
+          <t>everyone is very caring and attentive much different than any other facility i have had mri s done thank yo</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -4433,22 +4433,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3582968711853027</v>
+        <v>0.2466885447502136</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6417031288146973</v>
+        <v>0.7533114552497864</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>caring. and detailed. and kind. and efficient. so lucky to have your radiology team. all of us.</t>
+          <t>techs were very considerate and efficient; i appreciate that.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>caring and detailed and kind and efficient so lucky to have your radiology team all of us</t>
+          <t>techs were very considerate and efficient i appreciate that</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -4463,22 +4463,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3917232751846313</v>
+        <v>0.2667122483253479</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6082767248153687</v>
+        <v>0.7332877516746521</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>everything went very well. timing is unbelievably excellent. technician was great as were staff at the desk. could not have been any better.</t>
+          <t>everyone i was in contact with was very friendly, helpful and professional.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>everything went very well timing is unbelievably excellent technician was great as were staff at the desk could not have been any better</t>
+          <t>everyone i was in contact with was very friendly helpful and professional</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -4493,22 +4493,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4006488919258118</v>
+        <v>0.2708225250244141</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5993511080741882</v>
+        <v>0.7291774749755859</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>my experience was wonderful! my technician was friendly and helpful</t>
+          <t>impressed by the promptness and professionalism of the check in staff and the gentlemen who took my vitals.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>my experience was wonderful my technician was friendly and helpful</t>
+          <t>impressed by the promptness and professionalism of the check in staff and the gentlemen who took my vitals</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -4523,22 +4523,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4093735218048096</v>
+        <v>0.2894399762153625</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5906264781951904</v>
+        <v>0.7105600237846375</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>everything at my was extremely well organized and all the personnel i came in contact with were extremely helpful. this is not idle praise; i was very impressed. paul flaggman d.o.</t>
+          <t>my treatment was administered in the usual professional manor i have come to expect from mayo clinic.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>everything at my was extremely well organized and all the personnel i came in contact with were extremely helpful this is not idle praise i was very impressed paul flaggman d o</t>
+          <t>my treatment was administered in the usual professional manor i have come to expect from mayo clinic</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -4553,22 +4553,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4469695687294006</v>
+        <v>0.3288224339485168</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5530304312705994</v>
+        <v>0.6711775660514832</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>the radiology technicians were very nice and efficient!</t>
+          <t>i'm very happy with my experience, the mri crew went above and beyond to make my test,as pleasant as possible, kudos to all ,thank you again</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>the radiology technicians were very nice and efficient</t>
+          <t>i m very happy with my experience the mri crew went above and beyond to make my test as pleasant as possible kudos to all thank you again</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -4583,22 +4583,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4491373300552368</v>
+        <v>0.3471218347549438</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5508626699447632</v>
+        <v>0.6528781652450562</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>patrick was great! just what i expected from mayo clinic!</t>
+          <t>could not have been better. in and out very quickly and friendly and professional staff</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>patrick was great just what i expected from mayo clinic</t>
+          <t>could not have been better in and out very quickly and friendly and professional staff</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -4613,22 +4613,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4493975639343262</v>
+        <v>0.3507830500602722</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5506024360656738</v>
+        <v>0.6492169499397278</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>all staff that i encountered were most pleasant, patient &amp; professional</t>
+          <t>it was wonderful, you have a wonderful staff . they are so caring and understanding. i truly can not thank them enough for all they do to help us when we are concerned. i am and will always be "team mayo" thank you.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>all staff that i encountered were most pleasant patient professional</t>
+          <t>it was wonderful you have a wonderful staff they are so caring and understanding i truly can not thank them enough for all they do to help us when we are concerned i am and will always be team mayo thank you</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -4643,22 +4643,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4505966901779175</v>
+        <v>0.3670702576637268</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5494033098220825</v>
+        <v>0.6329297423362732</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>just the usual professional employees from housekeeping to the physicians</t>
+          <t>they were great. from the check in to check out. we had a glitch with the machine and they talked me through the whole thing</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>just the usual professional employees from housekeeping to the physicians</t>
+          <t>they were great from the check in to check out we had a glitch with the machine and they talked me through the whole thing</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -4673,22 +4673,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="C142" t="n">
-        <v>0.45484459400177</v>
+        <v>0.3708997964859009</v>
       </c>
       <c r="D142" t="n">
-        <v>0.54515540599823</v>
+        <v>0.6291002035140991</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>i had extensive lower extremity x-rays ordered and the two ladies who took them were terrific and very helpful</t>
+          <t>everyone was professional, courteous and understanding. couldn't have asked for better care.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>i had extensive lower extremity x rays ordered and the two ladies who took them were terrific and very helpful</t>
+          <t>everyone was professional courteous and understanding couldn t have asked for better care</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -4703,22 +4703,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4840425848960876</v>
+        <v>0.3757799863815308</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5159574151039124</v>
+        <v>0.6242200136184692</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>the staff was excellent. great communication and care._x000d_ thank you.</t>
+          <t>a big thank you to the team for their excellent communication and care</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>the staff was excellent great communication and care x000d thank you</t>
+          <t>a big thank you to the team for their excellent communication and care</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -4733,28 +4733,208 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4855829477310181</v>
+        <v>0.3817936182022095</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5144170522689819</v>
+        <v>0.6182063817977905</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>i'm very happy with my experience, the mri crew went above and beyond to make my test,as pleasant as possible, kudos to all ,thank you again</t>
+          <t>friendly, efficient, and professional! i always appreciate how well your teams work with each other!</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>i m very happy with my experience the mri crew went above and beyond to make my test as pleasant as possible kudos to all thank you again</t>
+          <t>friendly efficient and professional i always appreciate how well your teams work with each other</t>
         </is>
       </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>175</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.3960275053977966</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.6039724946022034</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>it was a very pleasant experience. all the staff was incredibly friendly and nice. they constantly were checking to see if i needed anything. it was a great experience. i was expecting a long wait and was pleasantly surprised that everything was on time and everyone was just ready to go.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>it was a very pleasant experience all the staff was incredibly friendly and nice they constantly were checking to see if i needed anything it was a great experience i was expecting a long wait and was pleasantly surprised that everything was on time and everyone was just ready to go</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>107</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4244323968887329</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5755676031112671</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>awesome awesome job. mayo puts all others in another class. great team, care and so on.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>awesome awesome job mayo puts all others in another class great team care and so on</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>59</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.442179799079895</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.557820200920105</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>from when i checked in until i left i felt so comfortable and loved everyone i came in contact with.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>from when i checked in until i left i felt so comfortable and loved everyone i came in contact with</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>39</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.4774778485298157</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5225221514701843</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>everything went very well. timing is unbelievably excellent. technician was great as were staff at the desk. could not have been any better.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>everything went very well timing is unbelievably excellent technician was great as were staff at the desk could not have been any better</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>180</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4793927669525146</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.5206072330474854</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>i had another mri … noisy, as usual! there is no (apparent) way to avoid the noise, but the headphones you provide don’t provide enough fidelity to easily understand the techs comments/instructions or to hear the music offered. the process was unremarkable and reasonably comfortable, the techs pleasant and efficient, and the music distorted</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>i had another mri noisy as usual there is no apparent way to avoid the noise but the headphones you provide don t provide enough fidelity to easily understand the techs comments instructions or to hear the music offered the process was unremarkable and reasonably comfortable the techs pleasant and efficient and the music distorted</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>128</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.484203040599823</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.515796959400177</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>the radiology technicians were very nice and efficient!</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>the radiology technicians were very nice and efficient</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
         <v>1</v>
       </c>
     </row>
